--- a/teaching/traditional_assets/database/data/italy/italy_education.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_education.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bit_abtg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.02325</v>
+        <v>-0.004079999999999999</v>
       </c>
       <c r="H2">
-        <v>-0.02325</v>
+        <v>-0.00424</v>
       </c>
       <c r="I2">
-        <v>-0.0825</v>
+        <v>0.01496</v>
       </c>
       <c r="J2">
-        <v>-0.0825</v>
+        <v>0.01496</v>
       </c>
       <c r="K2">
-        <v>-1.49</v>
+        <v>-0.877</v>
       </c>
       <c r="L2">
-        <v>-0.1241666666666667</v>
+        <v>-0.07016</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +632,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.346</v>
+        <v>1.41</v>
       </c>
       <c r="V2">
-        <v>0.03519837232960325</v>
+        <v>0.1559734513274336</v>
       </c>
       <c r="W2">
-        <v>-0.1714614499424626</v>
+        <v>-0.1501712328767123</v>
       </c>
       <c r="X2">
-        <v>0.09871183343030504</v>
+        <v>0.07876701230750614</v>
       </c>
       <c r="Y2">
-        <v>-0.2701732833727676</v>
+        <v>-0.2289382451842185</v>
       </c>
       <c r="Z2">
-        <v>1.331410185287917</v>
+        <v>2.028891413731537</v>
       </c>
       <c r="AA2">
-        <v>-0.1098413402862532</v>
+        <v>0.03035221554942379</v>
       </c>
       <c r="AB2">
-        <v>0.09695938476061239</v>
+        <v>0.07515930837660527</v>
       </c>
       <c r="AC2">
-        <v>-0.2068007250468656</v>
+        <v>-0.04480709282718148</v>
       </c>
       <c r="AD2">
-        <v>0.698</v>
+        <v>0.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.698</v>
+        <v>0.8</v>
       </c>
       <c r="AG2">
-        <v>0.352</v>
+        <v>-0.6099999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.06629939209726443</v>
+        <v>0.08130081300813009</v>
       </c>
       <c r="AI2">
-        <v>0.106760477210156</v>
+        <v>0.137221269296741</v>
       </c>
       <c r="AJ2">
-        <v>0.03457081123551365</v>
+        <v>-0.0723606168446026</v>
       </c>
       <c r="AK2">
-        <v>0.05684754521963824</v>
+        <v>-0.1380090497737556</v>
       </c>
       <c r="AL2">
-        <v>0.129</v>
+        <v>0.027</v>
       </c>
       <c r="AM2">
-        <v>0.129</v>
+        <v>0.027</v>
       </c>
       <c r="AN2">
-        <v>-2.7265625</v>
+        <v>0.866738894907909</v>
       </c>
       <c r="AO2">
-        <v>-7.674418604651162</v>
+        <v>6.925925925925926</v>
       </c>
       <c r="AP2">
-        <v>-1.375</v>
+        <v>-0.6608884073672805</v>
       </c>
       <c r="AQ2">
-        <v>-7.674418604651162</v>
+        <v>6.925925925925926</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.02325</v>
+        <v>-0.004079999999999999</v>
       </c>
       <c r="H3">
-        <v>-0.02325</v>
+        <v>-0.00424</v>
       </c>
       <c r="I3">
-        <v>-0.0825</v>
+        <v>0.01496</v>
       </c>
       <c r="J3">
-        <v>-0.0825</v>
+        <v>0.01496</v>
       </c>
       <c r="K3">
-        <v>-1.49</v>
+        <v>-0.877</v>
       </c>
       <c r="L3">
-        <v>-0.1241666666666667</v>
+        <v>-0.07016</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +757,8780 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.346</v>
+        <v>1.41</v>
       </c>
       <c r="V3">
-        <v>0.03519837232960325</v>
+        <v>0.1559734513274336</v>
       </c>
       <c r="W3">
-        <v>-0.1714614499424626</v>
+        <v>-0.1501712328767123</v>
       </c>
       <c r="X3">
-        <v>0.09871183343030504</v>
+        <v>0.07876701230750614</v>
       </c>
       <c r="Y3">
-        <v>-0.2701732833727676</v>
+        <v>-0.2289382451842185</v>
       </c>
       <c r="Z3">
-        <v>1.331410185287917</v>
+        <v>2.028891413731537</v>
       </c>
       <c r="AA3">
-        <v>-0.1098413402862532</v>
+        <v>0.03035221554942379</v>
       </c>
       <c r="AB3">
-        <v>0.09695938476061239</v>
+        <v>0.07515930837660527</v>
       </c>
       <c r="AC3">
-        <v>-0.2068007250468656</v>
+        <v>-0.04480709282718148</v>
       </c>
       <c r="AD3">
-        <v>0.698</v>
+        <v>0.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.698</v>
+        <v>0.8</v>
       </c>
       <c r="AG3">
-        <v>0.352</v>
+        <v>-0.6099999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.06629939209726443</v>
+        <v>0.08130081300813009</v>
       </c>
       <c r="AI3">
-        <v>0.106760477210156</v>
+        <v>0.137221269296741</v>
       </c>
       <c r="AJ3">
-        <v>0.03457081123551365</v>
+        <v>-0.0723606168446026</v>
       </c>
       <c r="AK3">
-        <v>0.05684754521963824</v>
+        <v>-0.1380090497737556</v>
       </c>
       <c r="AL3">
-        <v>0.129</v>
+        <v>0.027</v>
       </c>
       <c r="AM3">
-        <v>0.129</v>
+        <v>0.027</v>
       </c>
       <c r="AN3">
-        <v>-2.7265625</v>
+        <v>0.866738894907909</v>
       </c>
       <c r="AO3">
-        <v>-7.674418604651162</v>
+        <v>6.925925925925926</v>
       </c>
       <c r="AP3">
-        <v>-1.375</v>
+        <v>-0.6608884073672805</v>
       </c>
       <c r="AQ3">
-        <v>-7.674418604651162</v>
+        <v>6.925925925925926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alfio Bardolla Training Group S.p.A. (BIT:ABTG)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BIT:ABTG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.08130081300813009</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="H2">
+        <v>8.46369134562881</v>
+      </c>
+      <c r="I2">
+        <v>8.43</v>
+      </c>
+      <c r="J2">
+        <v>7.15209134562881</v>
+      </c>
+      <c r="K2">
+        <v>0.8</v>
+      </c>
+      <c r="L2">
+        <v>0.0984</v>
+      </c>
+      <c r="M2">
+        <v>0.0751593083766053</v>
+      </c>
+      <c r="N2">
+        <v>0.0928806959999621</v>
+      </c>
+      <c r="O2">
+        <v>0.0343922539574253</v>
+      </c>
+      <c r="P2">
+        <v>1.42028536585366</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0787670123075061</v>
+      </c>
+      <c r="T2">
+        <v>0.0794725680216419</v>
+      </c>
+      <c r="U2">
+        <v>1.01383637699767</v>
+      </c>
+      <c r="V2">
+        <v>1.0241336105367</v>
+      </c>
+      <c r="W2">
+        <v>-28.0481166270563</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.06851895817076799</v>
+      </c>
+      <c r="AC2">
+        <v>0.04525296573345439</v>
+      </c>
+      <c r="AD2">
+        <v>0.24</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.923</v>
+      </c>
+      <c r="AH2">
+        <v>1.43</v>
+      </c>
+      <c r="AI2">
+        <v>0.1880000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>0.8</v>
+      </c>
+      <c r="AK2">
+        <v>0.8000000000000002</v>
+      </c>
+      <c r="AL2">
+        <v>0.027</v>
+      </c>
+      <c r="AM2">
+        <v>0.8</v>
+      </c>
+      <c r="AN2">
+        <v>1.41</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-0.8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.41</v>
+      </c>
+      <c r="H2">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.923</v>
+      </c>
+      <c r="K2">
+        <v>1.43</v>
+      </c>
+      <c r="L2">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="O2">
+        <v>-0.12168</v>
+      </c>
+      <c r="P2">
+        <v>-0.3853199999999999</v>
+      </c>
+      <c r="Q2">
+        <v>1.04468</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09288069599996211</v>
+      </c>
+      <c r="C3">
+        <v>8.463691345628813</v>
+      </c>
+      <c r="D3">
+        <v>7.152091345628814</v>
+      </c>
+      <c r="E3">
+        <v>-0.7016</v>
+      </c>
+      <c r="F3">
+        <v>0.0984</v>
+      </c>
+      <c r="G3">
+        <v>1.41</v>
+      </c>
+      <c r="H3">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.923</v>
+      </c>
+      <c r="K3">
+        <v>1.43</v>
+      </c>
+      <c r="L3">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.01807608</v>
+      </c>
+      <c r="N3">
+        <v>-0.5250760799999999</v>
+      </c>
+      <c r="O3">
+        <v>-0.1260182592</v>
+      </c>
+      <c r="P3">
+        <v>-0.3990578208</v>
+      </c>
+      <c r="Q3">
+        <v>1.0309421792</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07947256802164195</v>
+      </c>
+      <c r="T3">
+        <v>1.024133610536703</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-6.731547990493512</v>
+      </c>
+      <c r="W3">
+        <v>1.420285365853658</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-28.0481166270563</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09462469599996212</v>
+      </c>
+      <c r="C4">
+        <v>8.260162247899848</v>
+      </c>
+      <c r="D4">
+        <v>7.046962247899847</v>
+      </c>
+      <c r="E4">
+        <v>-0.6032000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.1968</v>
+      </c>
+      <c r="G4">
+        <v>1.41</v>
+      </c>
+      <c r="H4">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.923</v>
+      </c>
+      <c r="K4">
+        <v>1.43</v>
+      </c>
+      <c r="L4">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.03615216</v>
+      </c>
+      <c r="N4">
+        <v>-0.5431521599999999</v>
+      </c>
+      <c r="O4">
+        <v>-0.1303565184</v>
+      </c>
+      <c r="P4">
+        <v>-0.4127956415999999</v>
+      </c>
+      <c r="Q4">
+        <v>1.0172043584</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.0801886146341077</v>
+      </c>
+      <c r="T4">
+        <v>1.034583953501363</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-3.365773995246756</v>
+      </c>
+      <c r="W4">
+        <v>0.8019926829268291</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-14.02405831352815</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09636869599996213</v>
+      </c>
+      <c r="C5">
+        <v>8.059678979431702</v>
+      </c>
+      <c r="D5">
+        <v>6.944878979431702</v>
+      </c>
+      <c r="E5">
+        <v>-0.5048000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.2952</v>
+      </c>
+      <c r="G5">
+        <v>1.41</v>
+      </c>
+      <c r="H5">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.923</v>
+      </c>
+      <c r="K5">
+        <v>1.43</v>
+      </c>
+      <c r="L5">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.05422824</v>
+      </c>
+      <c r="N5">
+        <v>-0.5612282399999999</v>
+      </c>
+      <c r="O5">
+        <v>-0.1346947776</v>
+      </c>
+      <c r="P5">
+        <v>-0.4265334624</v>
+      </c>
+      <c r="Q5">
+        <v>1.0034665376</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.08091942509425314</v>
+      </c>
+      <c r="T5">
+        <v>1.045249767454986</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-2.243849330164504</v>
+      </c>
+      <c r="W5">
+        <v>0.5958951219512194</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-9.349372209018769</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09811269599996209</v>
+      </c>
+      <c r="C6">
+        <v>7.862111063419291</v>
+      </c>
+      <c r="D6">
+        <v>6.845711063419291</v>
+      </c>
+      <c r="E6">
+        <v>-0.4064</v>
+      </c>
+      <c r="F6">
+        <v>0.3936</v>
+      </c>
+      <c r="G6">
+        <v>1.41</v>
+      </c>
+      <c r="H6">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.923</v>
+      </c>
+      <c r="K6">
+        <v>1.43</v>
+      </c>
+      <c r="L6">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.07230432000000001</v>
+      </c>
+      <c r="N6">
+        <v>-0.5793043199999999</v>
+      </c>
+      <c r="O6">
+        <v>-0.1390330368</v>
+      </c>
+      <c r="P6">
+        <v>-0.4402712831999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.9897287168</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08166546077231825</v>
+      </c>
+      <c r="T6">
+        <v>1.056137785865975</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-1.682886997623378</v>
+      </c>
+      <c r="W6">
+        <v>0.4928463414634146</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-7.012029156764076</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09985669599996211</v>
+      </c>
+      <c r="C7">
+        <v>7.667335370602495</v>
+      </c>
+      <c r="D7">
+        <v>6.749335370602496</v>
+      </c>
+      <c r="E7">
+        <v>-0.3080000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.492</v>
+      </c>
+      <c r="G7">
+        <v>1.41</v>
+      </c>
+      <c r="H7">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.923</v>
+      </c>
+      <c r="K7">
+        <v>1.43</v>
+      </c>
+      <c r="L7">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.0903804</v>
+      </c>
+      <c r="N7">
+        <v>-0.5973803999999999</v>
+      </c>
+      <c r="O7">
+        <v>-0.143371296</v>
+      </c>
+      <c r="P7">
+        <v>-0.4540091039999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.975990896</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.08242720246465846</v>
+      </c>
+      <c r="T7">
+        <v>1.067255025717196</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-1.346309598098703</v>
+      </c>
+      <c r="W7">
+        <v>0.4310170731707317</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-5.609623325411261</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1016006959999621</v>
+      </c>
+      <c r="C8">
+        <v>7.47523560924322</v>
+      </c>
+      <c r="D8">
+        <v>6.65563560924322</v>
+      </c>
+      <c r="E8">
+        <v>-0.2096000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.5903999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.41</v>
+      </c>
+      <c r="H8">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.923</v>
+      </c>
+      <c r="K8">
+        <v>1.43</v>
+      </c>
+      <c r="L8">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.10845648</v>
+      </c>
+      <c r="N8">
+        <v>-0.6154564799999999</v>
+      </c>
+      <c r="O8">
+        <v>-0.1477095552</v>
+      </c>
+      <c r="P8">
+        <v>-0.4677469247999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.9622530752</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.08320515142704844</v>
+      </c>
+      <c r="T8">
+        <v>1.078608802586528</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-1.121924665082252</v>
+      </c>
+      <c r="W8">
+        <v>0.3897975609756097</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-4.674686104509384</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1033446959999621</v>
+      </c>
+      <c r="C9">
+        <v>7.285701857004014</v>
+      </c>
+      <c r="D9">
+        <v>6.564501857004014</v>
+      </c>
+      <c r="E9">
+        <v>-0.1112</v>
+      </c>
+      <c r="F9">
+        <v>0.6888000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.41</v>
+      </c>
+      <c r="H9">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.923</v>
+      </c>
+      <c r="K9">
+        <v>1.43</v>
+      </c>
+      <c r="L9">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.12653256</v>
+      </c>
+      <c r="N9">
+        <v>-0.6335325599999999</v>
+      </c>
+      <c r="O9">
+        <v>-0.1520478144</v>
+      </c>
+      <c r="P9">
+        <v>-0.4814847455999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.9485152544</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.08399983047465111</v>
+      </c>
+      <c r="T9">
+        <v>1.090206746700361</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-0.9616497129276446</v>
+      </c>
+      <c r="W9">
+        <v>0.3603550522648083</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-4.006873803865186</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1050886959999621</v>
+      </c>
+      <c r="C10">
+        <v>7.098630130766352</v>
+      </c>
+      <c r="D10">
+        <v>6.475830130766353</v>
+      </c>
+      <c r="E10">
+        <v>-0.01280000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.7872</v>
+      </c>
+      <c r="G10">
+        <v>1.41</v>
+      </c>
+      <c r="H10">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.923</v>
+      </c>
+      <c r="K10">
+        <v>1.43</v>
+      </c>
+      <c r="L10">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.14460864</v>
+      </c>
+      <c r="N10">
+        <v>-0.6516086399999999</v>
+      </c>
+      <c r="O10">
+        <v>-0.1563860736</v>
+      </c>
+      <c r="P10">
+        <v>-0.4952225663999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.9347774336000001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0848117851537234</v>
+      </c>
+      <c r="T10">
+        <v>1.102056820034061</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-0.841443498811689</v>
+      </c>
+      <c r="W10">
+        <v>0.3382731707317073</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-3.506014578382037</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1068326959999621</v>
+      </c>
+      <c r="C11">
+        <v>6.913921990848992</v>
+      </c>
+      <c r="D11">
+        <v>6.389521990848992</v>
+      </c>
+      <c r="E11">
+        <v>0.0855999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.8855999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.41</v>
+      </c>
+      <c r="H11">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.923</v>
+      </c>
+      <c r="K11">
+        <v>1.43</v>
+      </c>
+      <c r="L11">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.16268472</v>
+      </c>
+      <c r="N11">
+        <v>-0.6696847199999999</v>
+      </c>
+      <c r="O11">
+        <v>-0.1607243328</v>
+      </c>
+      <c r="P11">
+        <v>-0.5089603871999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.9210396128</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0856415849905775</v>
+      </c>
+      <c r="T11">
+        <v>1.11416733453993</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-0.7479497767215014</v>
+      </c>
+      <c r="W11">
+        <v>0.3210983739837399</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-3.116457403006256</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1085766959999621</v>
+      </c>
+      <c r="C12">
+        <v>6.731484176459294</v>
+      </c>
+      <c r="D12">
+        <v>6.305484176459294</v>
+      </c>
+      <c r="E12">
+        <v>0.1839999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.984</v>
+      </c>
+      <c r="G12">
+        <v>1.41</v>
+      </c>
+      <c r="H12">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.923</v>
+      </c>
+      <c r="K12">
+        <v>1.43</v>
+      </c>
+      <c r="L12">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.1807608</v>
+      </c>
+      <c r="N12">
+        <v>-0.6877607999999999</v>
+      </c>
+      <c r="O12">
+        <v>-0.165062592</v>
+      </c>
+      <c r="P12">
+        <v>-0.522698208</v>
+      </c>
+      <c r="Q12">
+        <v>0.9073017919999999</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.08648982482380614</v>
+      </c>
+      <c r="T12">
+        <v>1.126546971590373</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-0.6731547990493513</v>
+      </c>
+      <c r="W12">
+        <v>0.3073585365853658</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-2.804811662705631</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1103206959999621</v>
+      </c>
+      <c r="C13">
+        <v>6.551228269539328</v>
+      </c>
+      <c r="D13">
+        <v>6.223628269539327</v>
+      </c>
+      <c r="E13">
+        <v>0.2824</v>
+      </c>
+      <c r="F13">
+        <v>1.0824</v>
+      </c>
+      <c r="G13">
+        <v>1.41</v>
+      </c>
+      <c r="H13">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.923</v>
+      </c>
+      <c r="K13">
+        <v>1.43</v>
+      </c>
+      <c r="L13">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.19883688</v>
+      </c>
+      <c r="N13">
+        <v>-0.7058368799999999</v>
+      </c>
+      <c r="O13">
+        <v>-0.1694008512</v>
+      </c>
+      <c r="P13">
+        <v>-0.5364360287999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.8935639712000001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0873571262263208</v>
+      </c>
+      <c r="T13">
+        <v>1.139204802731838</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-0.6119589082266829</v>
+      </c>
+      <c r="W13">
+        <v>0.2961168514412416</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-2.549828784277845</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1120646959999621</v>
+      </c>
+      <c r="C14">
+        <v>6.373070384459505</v>
+      </c>
+      <c r="D14">
+        <v>6.143870384459505</v>
+      </c>
+      <c r="E14">
+        <v>0.3807999999999998</v>
+      </c>
+      <c r="F14">
+        <v>1.1808</v>
+      </c>
+      <c r="G14">
+        <v>1.41</v>
+      </c>
+      <c r="H14">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.923</v>
+      </c>
+      <c r="K14">
+        <v>1.43</v>
+      </c>
+      <c r="L14">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.21691296</v>
+      </c>
+      <c r="N14">
+        <v>-0.7239129599999998</v>
+      </c>
+      <c r="O14">
+        <v>-0.1737391104</v>
+      </c>
+      <c r="P14">
+        <v>-0.5501738495999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.8798261504</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.0882441390243472</v>
+      </c>
+      <c r="T14">
+        <v>1.152150311853791</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-0.560962332541126</v>
+      </c>
+      <c r="W14">
+        <v>0.2867487804878049</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-2.337343052254692</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1138086959999621</v>
+      </c>
+      <c r="C15">
+        <v>6.196930881270423</v>
+      </c>
+      <c r="D15">
+        <v>6.066130881270423</v>
+      </c>
+      <c r="E15">
+        <v>0.4792000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1.2792</v>
+      </c>
+      <c r="G15">
+        <v>1.41</v>
+      </c>
+      <c r="H15">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.923</v>
+      </c>
+      <c r="K15">
+        <v>1.43</v>
+      </c>
+      <c r="L15">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.23498904</v>
+      </c>
+      <c r="N15">
+        <v>-0.7419890399999999</v>
+      </c>
+      <c r="O15">
+        <v>-0.1780773696</v>
+      </c>
+      <c r="P15">
+        <v>-0.5639116703999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.8660883296</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08915154292117877</v>
+      </c>
+      <c r="T15">
+        <v>1.165393418886593</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-0.5178113838841164</v>
+      </c>
+      <c r="W15">
+        <v>0.2788219512195122</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-2.157547432850484</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1155526959999621</v>
+      </c>
+      <c r="C16">
+        <v>6.022734100452309</v>
+      </c>
+      <c r="D16">
+        <v>5.990334100452309</v>
+      </c>
+      <c r="E16">
+        <v>0.5776000000000001</v>
+      </c>
+      <c r="F16">
+        <v>1.3776</v>
+      </c>
+      <c r="G16">
+        <v>1.41</v>
+      </c>
+      <c r="H16">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.923</v>
+      </c>
+      <c r="K16">
+        <v>1.43</v>
+      </c>
+      <c r="L16">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.25306512</v>
+      </c>
+      <c r="N16">
+        <v>-0.7600651199999999</v>
+      </c>
+      <c r="O16">
+        <v>-0.1824156288</v>
+      </c>
+      <c r="P16">
+        <v>-0.5776494912</v>
+      </c>
+      <c r="Q16">
+        <v>0.8523505088</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.09008004923421574</v>
+      </c>
+      <c r="T16">
+        <v>1.178944505152716</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-0.4808248564638223</v>
+      </c>
+      <c r="W16">
+        <v>0.2720275261324042</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-2.003436901932593</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1172966959999621</v>
+      </c>
+      <c r="C17">
+        <v>5.850408117305048</v>
+      </c>
+      <c r="D17">
+        <v>5.916408117305048</v>
+      </c>
+      <c r="E17">
+        <v>0.6759999999999999</v>
+      </c>
+      <c r="F17">
+        <v>1.476</v>
+      </c>
+      <c r="G17">
+        <v>1.41</v>
+      </c>
+      <c r="H17">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.923</v>
+      </c>
+      <c r="K17">
+        <v>1.43</v>
+      </c>
+      <c r="L17">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.2711412</v>
+      </c>
+      <c r="N17">
+        <v>-0.7781411999999999</v>
+      </c>
+      <c r="O17">
+        <v>-0.186753888</v>
+      </c>
+      <c r="P17">
+        <v>-0.5913873119999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.838612688</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.09103040275461827</v>
+      </c>
+      <c r="T17">
+        <v>1.192814440507454</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-0.4487698660329008</v>
+      </c>
+      <c r="W17">
+        <v>0.2661390243902439</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-1.869874441803753</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1190406959999621</v>
+      </c>
+      <c r="C18">
+        <v>5.679884514302752</v>
+      </c>
+      <c r="D18">
+        <v>5.844284514302752</v>
+      </c>
+      <c r="E18">
+        <v>0.7744</v>
+      </c>
+      <c r="F18">
+        <v>1.5744</v>
+      </c>
+      <c r="G18">
+        <v>1.41</v>
+      </c>
+      <c r="H18">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.923</v>
+      </c>
+      <c r="K18">
+        <v>1.43</v>
+      </c>
+      <c r="L18">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.28921728</v>
+      </c>
+      <c r="N18">
+        <v>-0.7962172799999999</v>
+      </c>
+      <c r="O18">
+        <v>-0.1910921472</v>
+      </c>
+      <c r="P18">
+        <v>-0.6051251327999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.8248748672</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.09200338373979229</v>
+      </c>
+      <c r="T18">
+        <v>1.207014612418257</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-0.4207217494058445</v>
+      </c>
+      <c r="W18">
+        <v>0.2609865853658536</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-1.753007289191019</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1207846959999621</v>
+      </c>
+      <c r="C19">
+        <v>5.51109816989838</v>
+      </c>
+      <c r="D19">
+        <v>5.773898169898381</v>
+      </c>
+      <c r="E19">
+        <v>0.8728</v>
+      </c>
+      <c r="F19">
+        <v>1.6728</v>
+      </c>
+      <c r="G19">
+        <v>1.41</v>
+      </c>
+      <c r="H19">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.923</v>
+      </c>
+      <c r="K19">
+        <v>1.43</v>
+      </c>
+      <c r="L19">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.30729336</v>
+      </c>
+      <c r="N19">
+        <v>-0.81429336</v>
+      </c>
+      <c r="O19">
+        <v>-0.1954304064</v>
+      </c>
+      <c r="P19">
+        <v>-0.6188629536</v>
+      </c>
+      <c r="Q19">
+        <v>0.8111370464</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.09299981004991027</v>
+      </c>
+      <c r="T19">
+        <v>1.221556957146188</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-0.3959734112055007</v>
+      </c>
+      <c r="W19">
+        <v>0.2564403156384505</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-1.649889213356253</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1225286959999621</v>
+      </c>
+      <c r="C20">
+        <v>5.343987062408104</v>
+      </c>
+      <c r="D20">
+        <v>5.705187062408103</v>
+      </c>
+      <c r="E20">
+        <v>0.9711999999999998</v>
+      </c>
+      <c r="F20">
+        <v>1.7712</v>
+      </c>
+      <c r="G20">
+        <v>1.41</v>
+      </c>
+      <c r="H20">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.923</v>
+      </c>
+      <c r="K20">
+        <v>1.43</v>
+      </c>
+      <c r="L20">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M20">
+        <v>0.32536944</v>
+      </c>
+      <c r="N20">
+        <v>-0.8323694399999999</v>
+      </c>
+      <c r="O20">
+        <v>-0.1997686656</v>
+      </c>
+      <c r="P20">
+        <v>-0.6326007744</v>
+      </c>
+      <c r="Q20">
+        <v>0.7973992256</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.09402053944076284</v>
+      </c>
+      <c r="T20">
+        <v>1.236453993208946</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-0.3739748883607507</v>
+      </c>
+      <c r="W20">
+        <v>0.2523991869918699</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-1.558228701503128</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1242726959999621</v>
+      </c>
+      <c r="C21">
+        <v>5.178492087733971</v>
+      </c>
+      <c r="D21">
+        <v>5.638092087733971</v>
+      </c>
+      <c r="E21">
+        <v>1.0696</v>
+      </c>
+      <c r="F21">
+        <v>1.8696</v>
+      </c>
+      <c r="G21">
+        <v>1.41</v>
+      </c>
+      <c r="H21">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.923</v>
+      </c>
+      <c r="K21">
+        <v>1.43</v>
+      </c>
+      <c r="L21">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.34344552</v>
+      </c>
+      <c r="N21">
+        <v>-0.8504455199999998</v>
+      </c>
+      <c r="O21">
+        <v>-0.2041069248</v>
+      </c>
+      <c r="P21">
+        <v>-0.6463385951999999</v>
+      </c>
+      <c r="Q21">
+        <v>0.7836614048</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.09506647202645127</v>
+      </c>
+      <c r="T21">
+        <v>1.251718857322637</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-0.3542919994996585</v>
+      </c>
+      <c r="W21">
+        <v>0.2487834403080873</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-1.47621666458191</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1260166959999621</v>
+      </c>
+      <c r="C22">
+        <v>5.014556889798949</v>
+      </c>
+      <c r="D22">
+        <v>5.572556889798949</v>
+      </c>
+      <c r="E22">
+        <v>1.168</v>
+      </c>
+      <c r="F22">
+        <v>1.968</v>
+      </c>
+      <c r="G22">
+        <v>1.41</v>
+      </c>
+      <c r="H22">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.923</v>
+      </c>
+      <c r="K22">
+        <v>1.43</v>
+      </c>
+      <c r="L22">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.3615216</v>
+      </c>
+      <c r="N22">
+        <v>-0.8685215999999999</v>
+      </c>
+      <c r="O22">
+        <v>-0.208445184</v>
+      </c>
+      <c r="P22">
+        <v>-0.6600764159999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.769923584</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.09613855292678192</v>
+      </c>
+      <c r="T22">
+        <v>1.26736534303917</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-0.3365773995246756</v>
+      </c>
+      <c r="W22">
+        <v>0.2455292682926829</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-1.402405831352815</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1277606959999621</v>
+      </c>
+      <c r="C23">
+        <v>4.852127702671883</v>
+      </c>
+      <c r="D23">
+        <v>5.508527702671882</v>
+      </c>
+      <c r="E23">
+        <v>1.2664</v>
+      </c>
+      <c r="F23">
+        <v>2.0664</v>
+      </c>
+      <c r="G23">
+        <v>1.41</v>
+      </c>
+      <c r="H23">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.923</v>
+      </c>
+      <c r="K23">
+        <v>1.43</v>
+      </c>
+      <c r="L23">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.37959768</v>
+      </c>
+      <c r="N23">
+        <v>-0.8865976799999999</v>
+      </c>
+      <c r="O23">
+        <v>-0.2127834432</v>
+      </c>
+      <c r="P23">
+        <v>-0.6738142368</v>
+      </c>
+      <c r="Q23">
+        <v>0.7561857632</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09723777511572852</v>
+      </c>
+      <c r="T23">
+        <v>1.283407942318147</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-0.3205499043092149</v>
+      </c>
+      <c r="W23">
+        <v>0.2425850174216028</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-1.335624601288396</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1295046959999621</v>
+      </c>
+      <c r="C24">
+        <v>4.691153203452782</v>
+      </c>
+      <c r="D24">
+        <v>5.445953203452782</v>
+      </c>
+      <c r="E24">
+        <v>1.3648</v>
+      </c>
+      <c r="F24">
+        <v>2.1648</v>
+      </c>
+      <c r="G24">
+        <v>1.41</v>
+      </c>
+      <c r="H24">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.923</v>
+      </c>
+      <c r="K24">
+        <v>1.43</v>
+      </c>
+      <c r="L24">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M24">
+        <v>0.39767376</v>
+      </c>
+      <c r="N24">
+        <v>-0.9046737599999999</v>
+      </c>
+      <c r="O24">
+        <v>-0.2171217024</v>
+      </c>
+      <c r="P24">
+        <v>-0.6875520575999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.7424479424</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.09836518248900709</v>
+      </c>
+      <c r="T24">
+        <v>1.299861890296585</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-0.3059794541133414</v>
+      </c>
+      <c r="W24">
+        <v>0.2399084257206208</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-1.274914392138923</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1312486959999621</v>
+      </c>
+      <c r="C25">
+        <v>4.531584375072457</v>
+      </c>
+      <c r="D25">
+        <v>5.384784375072456</v>
+      </c>
+      <c r="E25">
+        <v>1.4632</v>
+      </c>
+      <c r="F25">
+        <v>2.2632</v>
+      </c>
+      <c r="G25">
+        <v>1.41</v>
+      </c>
+      <c r="H25">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.923</v>
+      </c>
+      <c r="K25">
+        <v>1.43</v>
+      </c>
+      <c r="L25">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M25">
+        <v>0.41574984</v>
+      </c>
+      <c r="N25">
+        <v>-0.9227498399999998</v>
+      </c>
+      <c r="O25">
+        <v>-0.2214599615999999</v>
+      </c>
+      <c r="P25">
+        <v>-0.7012898783999999</v>
+      </c>
+      <c r="Q25">
+        <v>0.7287101216</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.09952187317068249</v>
+      </c>
+      <c r="T25">
+        <v>1.316743213547189</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-0.2926759995866745</v>
+      </c>
+      <c r="W25">
+        <v>0.2374645811240721</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-1.219483331611143</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1329926959999621</v>
+      </c>
+      <c r="C26">
+        <v>4.373374378235649</v>
+      </c>
+      <c r="D26">
+        <v>5.324974378235648</v>
+      </c>
+      <c r="E26">
+        <v>1.5616</v>
+      </c>
+      <c r="F26">
+        <v>2.3616</v>
+      </c>
+      <c r="G26">
+        <v>1.41</v>
+      </c>
+      <c r="H26">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.923</v>
+      </c>
+      <c r="K26">
+        <v>1.43</v>
+      </c>
+      <c r="L26">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M26">
+        <v>0.43382592</v>
+      </c>
+      <c r="N26">
+        <v>-0.9408259199999999</v>
+      </c>
+      <c r="O26">
+        <v>-0.2257982207999999</v>
+      </c>
+      <c r="P26">
+        <v>-0.7150276992</v>
+      </c>
+      <c r="Q26">
+        <v>0.7149723008</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1007090030808231</v>
+      </c>
+      <c r="T26">
+        <v>1.334068782146495</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-0.280481166270563</v>
+      </c>
+      <c r="W26">
+        <v>0.2352243902439024</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-1.168671526127346</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1347366959999621</v>
+      </c>
+      <c r="C27">
+        <v>4.216478431804531</v>
+      </c>
+      <c r="D27">
+        <v>5.266478431804531</v>
+      </c>
+      <c r="E27">
+        <v>1.66</v>
+      </c>
+      <c r="F27">
+        <v>2.46</v>
+      </c>
+      <c r="G27">
+        <v>1.41</v>
+      </c>
+      <c r="H27">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.923</v>
+      </c>
+      <c r="K27">
+        <v>1.43</v>
+      </c>
+      <c r="L27">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M27">
+        <v>0.451902</v>
+      </c>
+      <c r="N27">
+        <v>-0.9589019999999999</v>
+      </c>
+      <c r="O27">
+        <v>-0.23013648</v>
+      </c>
+      <c r="P27">
+        <v>-0.7287655199999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.70123448</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1019277897885674</v>
+      </c>
+      <c r="T27">
+        <v>1.351856365908448</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-0.2692619196197405</v>
+      </c>
+      <c r="W27">
+        <v>0.2331634146341463</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-1.121924665082252</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1364806959999621</v>
+      </c>
+      <c r="C28">
+        <v>4.060853700980639</v>
+      </c>
+      <c r="D28">
+        <v>5.209253700980638</v>
+      </c>
+      <c r="E28">
+        <v>1.7584</v>
+      </c>
+      <c r="F28">
+        <v>2.5584</v>
+      </c>
+      <c r="G28">
+        <v>1.41</v>
+      </c>
+      <c r="H28">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.923</v>
+      </c>
+      <c r="K28">
+        <v>1.43</v>
+      </c>
+      <c r="L28">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.46997808</v>
+      </c>
+      <c r="N28">
+        <v>-0.9769780799999999</v>
+      </c>
+      <c r="O28">
+        <v>-0.2344747391999999</v>
+      </c>
+      <c r="P28">
+        <v>-0.7425033407999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.6874966592</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1031795166776021</v>
+      </c>
+      <c r="T28">
+        <v>1.370124695177481</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-0.2589056919420582</v>
+      </c>
+      <c r="W28">
+        <v>0.2312609756097561</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-1.078773716425242</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1382246959999621</v>
+      </c>
+      <c r="C29">
+        <v>3.906459192698399</v>
+      </c>
+      <c r="D29">
+        <v>5.153259192698399</v>
+      </c>
+      <c r="E29">
+        <v>1.8568</v>
+      </c>
+      <c r="F29">
+        <v>2.6568</v>
+      </c>
+      <c r="G29">
+        <v>1.41</v>
+      </c>
+      <c r="H29">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.923</v>
+      </c>
+      <c r="K29">
+        <v>1.43</v>
+      </c>
+      <c r="L29">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M29">
+        <v>0.48805416</v>
+      </c>
+      <c r="N29">
+        <v>-0.9950541599999999</v>
+      </c>
+      <c r="O29">
+        <v>-0.2388129984</v>
+      </c>
+      <c r="P29">
+        <v>-0.7562411616</v>
+      </c>
+      <c r="Q29">
+        <v>0.6737588383999999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1044655374540076</v>
+      </c>
+      <c r="T29">
+        <v>1.388893526618268</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-0.2493165922405004</v>
+      </c>
+      <c r="W29">
+        <v>0.2294994579945799</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-1.038819134335419</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1399686959999621</v>
+      </c>
+      <c r="C30">
+        <v>3.75325565769345</v>
+      </c>
+      <c r="D30">
+        <v>5.09845565769345</v>
+      </c>
+      <c r="E30">
+        <v>1.9552</v>
+      </c>
+      <c r="F30">
+        <v>2.7552</v>
+      </c>
+      <c r="G30">
+        <v>1.41</v>
+      </c>
+      <c r="H30">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.923</v>
+      </c>
+      <c r="K30">
+        <v>1.43</v>
+      </c>
+      <c r="L30">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M30">
+        <v>0.5061302400000001</v>
+      </c>
+      <c r="N30">
+        <v>-1.01313024</v>
+      </c>
+      <c r="O30">
+        <v>-0.2431512576</v>
+      </c>
+      <c r="P30">
+        <v>-0.7699789824</v>
+      </c>
+      <c r="Q30">
+        <v>0.6600210176</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1057872810297577</v>
+      </c>
+      <c r="T30">
+        <v>1.408183714487967</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-0.2404124282319111</v>
+      </c>
+      <c r="W30">
+        <v>0.2278637630662021</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-1.001718450966296</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1417126959999621</v>
+      </c>
+      <c r="C31">
+        <v>3.601205498754065</v>
+      </c>
+      <c r="D31">
+        <v>5.044805498754065</v>
+      </c>
+      <c r="E31">
+        <v>2.053599999999999</v>
+      </c>
+      <c r="F31">
+        <v>2.8536</v>
+      </c>
+      <c r="G31">
+        <v>1.41</v>
+      </c>
+      <c r="H31">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.923</v>
+      </c>
+      <c r="K31">
+        <v>1.43</v>
+      </c>
+      <c r="L31">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M31">
+        <v>0.52420632</v>
+      </c>
+      <c r="N31">
+        <v>-1.03120632</v>
+      </c>
+      <c r="O31">
+        <v>-0.2474895168</v>
+      </c>
+      <c r="P31">
+        <v>-0.7837168031999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.6462831968</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1071462568189092</v>
+      </c>
+      <c r="T31">
+        <v>1.428017287931459</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-0.2321223444997763</v>
+      </c>
+      <c r="W31">
+        <v>0.2263408746846089</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-0.9671764354157346</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1434566959999621</v>
+      </c>
+      <c r="C32">
+        <v>3.450272684704967</v>
+      </c>
+      <c r="D32">
+        <v>4.992272684704967</v>
+      </c>
+      <c r="E32">
+        <v>2.152</v>
+      </c>
+      <c r="F32">
+        <v>2.952</v>
+      </c>
+      <c r="G32">
+        <v>1.41</v>
+      </c>
+      <c r="H32">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.923</v>
+      </c>
+      <c r="K32">
+        <v>1.43</v>
+      </c>
+      <c r="L32">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M32">
+        <v>0.5422824000000001</v>
+      </c>
+      <c r="N32">
+        <v>-1.0492824</v>
+      </c>
+      <c r="O32">
+        <v>-0.251827776</v>
+      </c>
+      <c r="P32">
+        <v>-0.797454624</v>
+      </c>
+      <c r="Q32">
+        <v>0.6325453759999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1085440604877508</v>
+      </c>
+      <c r="T32">
+        <v>1.448417534901909</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-0.2243849330164504</v>
+      </c>
+      <c r="W32">
+        <v>0.224919512195122</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-0.9349372209018769</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1452006959999621</v>
+      </c>
+      <c r="C33">
+        <v>3.30042266971003</v>
+      </c>
+      <c r="D33">
+        <v>4.940822669710029</v>
+      </c>
+      <c r="E33">
+        <v>2.2504</v>
+      </c>
+      <c r="F33">
+        <v>3.0504</v>
+      </c>
+      <c r="G33">
+        <v>1.41</v>
+      </c>
+      <c r="H33">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.923</v>
+      </c>
+      <c r="K33">
+        <v>1.43</v>
+      </c>
+      <c r="L33">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.56035848</v>
+      </c>
+      <c r="N33">
+        <v>-1.06735848</v>
+      </c>
+      <c r="O33">
+        <v>-0.2561660351999999</v>
+      </c>
+      <c r="P33">
+        <v>-0.8111924447999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.6188075552000001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1099823802049645</v>
+      </c>
+      <c r="T33">
+        <v>1.469409093378748</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-0.2171467093707585</v>
+      </c>
+      <c r="W33">
+        <v>0.2235898505114083</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-0.9047779557114934</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1469446959999621</v>
+      </c>
+      <c r="C34">
+        <v>3.151622317514014</v>
+      </c>
+      <c r="D34">
+        <v>4.890422317514014</v>
+      </c>
+      <c r="E34">
+        <v>2.3488</v>
+      </c>
+      <c r="F34">
+        <v>3.1488</v>
+      </c>
+      <c r="G34">
+        <v>1.41</v>
+      </c>
+      <c r="H34">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.923</v>
+      </c>
+      <c r="K34">
+        <v>1.43</v>
+      </c>
+      <c r="L34">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M34">
+        <v>0.57843456</v>
+      </c>
+      <c r="N34">
+        <v>-1.08543456</v>
+      </c>
+      <c r="O34">
+        <v>-0.2605042944</v>
+      </c>
+      <c r="P34">
+        <v>-0.8249302655999999</v>
+      </c>
+      <c r="Q34">
+        <v>0.6050697344</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1114630034432728</v>
+      </c>
+      <c r="T34">
+        <v>1.491018050634318</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.2103608747029223</v>
+      </c>
+      <c r="W34">
+        <v>0.2223432926829268</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-0.8765036445955094</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1486886959999621</v>
+      </c>
+      <c r="C35">
+        <v>3.003839830274276</v>
+      </c>
+      <c r="D35">
+        <v>4.841039830274276</v>
+      </c>
+      <c r="E35">
+        <v>2.4472</v>
+      </c>
+      <c r="F35">
+        <v>3.2472</v>
+      </c>
+      <c r="G35">
+        <v>1.41</v>
+      </c>
+      <c r="H35">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.923</v>
+      </c>
+      <c r="K35">
+        <v>1.43</v>
+      </c>
+      <c r="L35">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M35">
+        <v>0.5965106400000001</v>
+      </c>
+      <c r="N35">
+        <v>-1.10351064</v>
+      </c>
+      <c r="O35">
+        <v>-0.2648425536</v>
+      </c>
+      <c r="P35">
+        <v>-0.8386680864</v>
+      </c>
+      <c r="Q35">
+        <v>0.5913319135999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1129878243901874</v>
+      </c>
+      <c r="T35">
+        <v>1.513272051390054</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.2039863027422276</v>
+      </c>
+      <c r="W35">
+        <v>0.2211722838137472</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-0.8499429280926154</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1504326959999621</v>
+      </c>
+      <c r="C36">
+        <v>2.857044681661213</v>
+      </c>
+      <c r="D36">
+        <v>4.792644681661213</v>
+      </c>
+      <c r="E36">
+        <v>2.5456</v>
+      </c>
+      <c r="F36">
+        <v>3.3456</v>
+      </c>
+      <c r="G36">
+        <v>1.41</v>
+      </c>
+      <c r="H36">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.923</v>
+      </c>
+      <c r="K36">
+        <v>1.43</v>
+      </c>
+      <c r="L36">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M36">
+        <v>0.61458672</v>
+      </c>
+      <c r="N36">
+        <v>-1.12158672</v>
+      </c>
+      <c r="O36">
+        <v>-0.2691808127999999</v>
+      </c>
+      <c r="P36">
+        <v>-0.8524059071999999</v>
+      </c>
+      <c r="Q36">
+        <v>0.5775940928000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.114558852032463</v>
+      </c>
+      <c r="T36">
+        <v>1.536200415805055</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.1979867056027504</v>
+      </c>
+      <c r="W36">
+        <v>0.2200701578192253</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-0.8249446066781263</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1521766959999621</v>
+      </c>
+      <c r="C37">
+        <v>2.711207553931706</v>
+      </c>
+      <c r="D37">
+        <v>4.745207553931706</v>
+      </c>
+      <c r="E37">
+        <v>2.644</v>
+      </c>
+      <c r="F37">
+        <v>3.444</v>
+      </c>
+      <c r="G37">
+        <v>1.41</v>
+      </c>
+      <c r="H37">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.923</v>
+      </c>
+      <c r="K37">
+        <v>1.43</v>
+      </c>
+      <c r="L37">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M37">
+        <v>0.6326628000000001</v>
+      </c>
+      <c r="N37">
+        <v>-1.1396628</v>
+      </c>
+      <c r="O37">
+        <v>-0.273519072</v>
+      </c>
+      <c r="P37">
+        <v>-0.8661437279999999</v>
+      </c>
+      <c r="Q37">
+        <v>0.563856272</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1161782189868085</v>
+      </c>
+      <c r="T37">
+        <v>1.559834268355901</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.1923299425855289</v>
+      </c>
+      <c r="W37">
+        <v>0.2190310104529617</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-0.801374760773037</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1539206959999621</v>
+      </c>
+      <c r="C38">
+        <v>2.566300278702982</v>
+      </c>
+      <c r="D38">
+        <v>4.698700278702981</v>
+      </c>
+      <c r="E38">
+        <v>2.7424</v>
+      </c>
+      <c r="F38">
+        <v>3.5424</v>
+      </c>
+      <c r="G38">
+        <v>1.41</v>
+      </c>
+      <c r="H38">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.923</v>
+      </c>
+      <c r="K38">
+        <v>1.43</v>
+      </c>
+      <c r="L38">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0.65073888</v>
+      </c>
+      <c r="N38">
+        <v>-1.15773888</v>
+      </c>
+      <c r="O38">
+        <v>-0.2778573311999999</v>
+      </c>
+      <c r="P38">
+        <v>-0.8798815488</v>
+      </c>
+      <c r="Q38">
+        <v>0.5501184511999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1178481911584774</v>
+      </c>
+      <c r="T38">
+        <v>1.584206678798962</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.1869874441803754</v>
+      </c>
+      <c r="W38">
+        <v>0.218049593495935</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-0.7791143507515639</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1556646959999621</v>
+      </c>
+      <c r="C39">
+        <v>2.422295781175482</v>
+      </c>
+      <c r="D39">
+        <v>4.653095781175482</v>
+      </c>
+      <c r="E39">
+        <v>2.8408</v>
+      </c>
+      <c r="F39">
+        <v>3.6408</v>
+      </c>
+      <c r="G39">
+        <v>1.41</v>
+      </c>
+      <c r="H39">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.923</v>
+      </c>
+      <c r="K39">
+        <v>1.43</v>
+      </c>
+      <c r="L39">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.6688149600000001</v>
+      </c>
+      <c r="N39">
+        <v>-1.17581496</v>
+      </c>
+      <c r="O39">
+        <v>-0.2821955904</v>
+      </c>
+      <c r="P39">
+        <v>-0.8936193695999999</v>
+      </c>
+      <c r="Q39">
+        <v>0.5363806304000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1195711783197231</v>
+      </c>
+      <c r="T39">
+        <v>1.609352816557676</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.1819337294727976</v>
+      </c>
+      <c r="W39">
+        <v>0.2171212261041529</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-0.7580572061366566</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1574086959999621</v>
+      </c>
+      <c r="C40">
+        <v>2.279168027572679</v>
+      </c>
+      <c r="D40">
+        <v>4.608368027572679</v>
+      </c>
+      <c r="E40">
+        <v>2.9392</v>
+      </c>
+      <c r="F40">
+        <v>3.7392</v>
+      </c>
+      <c r="G40">
+        <v>1.41</v>
+      </c>
+      <c r="H40">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.923</v>
+      </c>
+      <c r="K40">
+        <v>1.43</v>
+      </c>
+      <c r="L40">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M40">
+        <v>0.68689104</v>
+      </c>
+      <c r="N40">
+        <v>-1.19389104</v>
+      </c>
+      <c r="O40">
+        <v>-0.2865338496</v>
+      </c>
+      <c r="P40">
+        <v>-0.9073571904</v>
+      </c>
+      <c r="Q40">
+        <v>0.5226428096</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1213497457119767</v>
+      </c>
+      <c r="T40">
+        <v>1.635310120050542</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.1771459997498293</v>
+      </c>
+      <c r="W40">
+        <v>0.2162417201540436</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-0.7381083322909554</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1591526959999621</v>
+      </c>
+      <c r="C41">
+        <v>2.136891975583419</v>
+      </c>
+      <c r="D41">
+        <v>4.564491975583419</v>
+      </c>
+      <c r="E41">
+        <v>3.0376</v>
+      </c>
+      <c r="F41">
+        <v>3.8376</v>
+      </c>
+      <c r="G41">
+        <v>1.41</v>
+      </c>
+      <c r="H41">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.923</v>
+      </c>
+      <c r="K41">
+        <v>1.43</v>
+      </c>
+      <c r="L41">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.7049671200000001</v>
+      </c>
+      <c r="N41">
+        <v>-1.21196712</v>
+      </c>
+      <c r="O41">
+        <v>-0.2908721088</v>
+      </c>
+      <c r="P41">
+        <v>-0.9210950112</v>
+      </c>
+      <c r="Q41">
+        <v>0.5089049887999999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1231866267892222</v>
+      </c>
+      <c r="T41">
+        <v>1.662118482674321</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.1726037946280388</v>
+      </c>
+      <c r="W41">
+        <v>0.2154073170731707</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-0.7191824776168283</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1608966959999621</v>
+      </c>
+      <c r="C42">
+        <v>1.995443527608584</v>
+      </c>
+      <c r="D42">
+        <v>4.521443527608584</v>
+      </c>
+      <c r="E42">
+        <v>3.136</v>
+      </c>
+      <c r="F42">
+        <v>3.936</v>
+      </c>
+      <c r="G42">
+        <v>1.41</v>
+      </c>
+      <c r="H42">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.923</v>
+      </c>
+      <c r="K42">
+        <v>1.43</v>
+      </c>
+      <c r="L42">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M42">
+        <v>0.7230432</v>
+      </c>
+      <c r="N42">
+        <v>-1.2300432</v>
+      </c>
+      <c r="O42">
+        <v>-0.2952103679999999</v>
+      </c>
+      <c r="P42">
+        <v>-0.9348328319999999</v>
+      </c>
+      <c r="Q42">
+        <v>0.495167168</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1250847372357092</v>
+      </c>
+      <c r="T42">
+        <v>1.68982045738556</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.1682886997623378</v>
+      </c>
+      <c r="W42">
+        <v>0.2146146341463415</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-0.7012029156764075</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1626406959999621</v>
+      </c>
+      <c r="C43">
+        <v>1.854799486628667</v>
+      </c>
+      <c r="D43">
+        <v>4.479199486628668</v>
+      </c>
+      <c r="E43">
+        <v>3.234400000000001</v>
+      </c>
+      <c r="F43">
+        <v>4.034400000000001</v>
+      </c>
+      <c r="G43">
+        <v>1.41</v>
+      </c>
+      <c r="H43">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.923</v>
+      </c>
+      <c r="K43">
+        <v>1.43</v>
+      </c>
+      <c r="L43">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M43">
+        <v>0.7411192800000002</v>
+      </c>
+      <c r="N43">
+        <v>-1.24811928</v>
+      </c>
+      <c r="O43">
+        <v>-0.2995486272</v>
+      </c>
+      <c r="P43">
+        <v>-0.9485706528</v>
+      </c>
+      <c r="Q43">
+        <v>0.4814293472</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1270471904091958</v>
+      </c>
+      <c r="T43">
+        <v>1.71846148208701</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.16418409732911</v>
+      </c>
+      <c r="W43">
+        <v>0.2138606186793575</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-0.6841004055379585</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1643846959999621</v>
+      </c>
+      <c r="C44">
+        <v>1.71493751452244</v>
+      </c>
+      <c r="D44">
+        <v>4.437737514522439</v>
+      </c>
+      <c r="E44">
+        <v>3.3328</v>
+      </c>
+      <c r="F44">
+        <v>4.1328</v>
+      </c>
+      <c r="G44">
+        <v>1.41</v>
+      </c>
+      <c r="H44">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.923</v>
+      </c>
+      <c r="K44">
+        <v>1.43</v>
+      </c>
+      <c r="L44">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M44">
+        <v>0.75919536</v>
+      </c>
+      <c r="N44">
+        <v>-1.26619536</v>
+      </c>
+      <c r="O44">
+        <v>-0.3038868863999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.9623084735999998</v>
+      </c>
+      <c r="Q44">
+        <v>0.4676915264000001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1290773143817681</v>
+      </c>
+      <c r="T44">
+        <v>1.74809012832989</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.1602749521546074</v>
+      </c>
+      <c r="W44">
+        <v>0.2131425087108014</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-0.6678123006441976</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1661286959999621</v>
+      </c>
+      <c r="C45">
+        <v>1.57583609267932</v>
+      </c>
+      <c r="D45">
+        <v>4.39703609267932</v>
+      </c>
+      <c r="E45">
+        <v>3.4312</v>
+      </c>
+      <c r="F45">
+        <v>4.2312</v>
+      </c>
+      <c r="G45">
+        <v>1.41</v>
+      </c>
+      <c r="H45">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.923</v>
+      </c>
+      <c r="K45">
+        <v>1.43</v>
+      </c>
+      <c r="L45">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0.77727144</v>
+      </c>
+      <c r="N45">
+        <v>-1.28427144</v>
+      </c>
+      <c r="O45">
+        <v>-0.3082251456</v>
+      </c>
+      <c r="P45">
+        <v>-0.9760462943999999</v>
+      </c>
+      <c r="Q45">
+        <v>0.4539537056</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1311786707744307</v>
+      </c>
+      <c r="T45">
+        <v>1.778758376195326</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.1565476276858956</v>
+      </c>
+      <c r="W45">
+        <v>0.2124577992058991</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-0.6522817820245652</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1678726959999621</v>
+      </c>
+      <c r="C46">
+        <v>1.437474484759576</v>
+      </c>
+      <c r="D46">
+        <v>4.357074484759576</v>
+      </c>
+      <c r="E46">
+        <v>3.5296</v>
+      </c>
+      <c r="F46">
+        <v>4.3296</v>
+      </c>
+      <c r="G46">
+        <v>1.41</v>
+      </c>
+      <c r="H46">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.923</v>
+      </c>
+      <c r="K46">
+        <v>1.43</v>
+      </c>
+      <c r="L46">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M46">
+        <v>0.7953475200000001</v>
+      </c>
+      <c r="N46">
+        <v>-1.30234752</v>
+      </c>
+      <c r="O46">
+        <v>-0.3125634048</v>
+      </c>
+      <c r="P46">
+        <v>-0.9897841152000001</v>
+      </c>
+      <c r="Q46">
+        <v>0.4402158847999998</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1333550756096884</v>
+      </c>
+      <c r="T46">
+        <v>1.810521918627386</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.1529897270566707</v>
+      </c>
+      <c r="W46">
+        <v>0.2118042128603104</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-0.6374571960694615</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1696166959999621</v>
+      </c>
+      <c r="C47">
+        <v>1.299832701466884</v>
+      </c>
+      <c r="D47">
+        <v>4.317832701466884</v>
+      </c>
+      <c r="E47">
+        <v>3.628</v>
+      </c>
+      <c r="F47">
+        <v>4.428</v>
+      </c>
+      <c r="G47">
+        <v>1.41</v>
+      </c>
+      <c r="H47">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.923</v>
+      </c>
+      <c r="K47">
+        <v>1.43</v>
+      </c>
+      <c r="L47">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.8134236</v>
+      </c>
+      <c r="N47">
+        <v>-1.3204236</v>
+      </c>
+      <c r="O47">
+        <v>-0.3169016639999999</v>
+      </c>
+      <c r="P47">
+        <v>-1.003521936</v>
+      </c>
+      <c r="Q47">
+        <v>0.4264780640000001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1356106224389555</v>
+      </c>
+      <c r="T47">
+        <v>1.843440498966065</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.1495899553443003</v>
+      </c>
+      <c r="W47">
+        <v>0.211179674796748</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-0.6232914806012511</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1713606959999621</v>
+      </c>
+      <c r="C48">
+        <v>1.162891467207563</v>
+      </c>
+      <c r="D48">
+        <v>4.279291467207562</v>
+      </c>
+      <c r="E48">
+        <v>3.7264</v>
+      </c>
+      <c r="F48">
+        <v>4.5264</v>
+      </c>
+      <c r="G48">
+        <v>1.41</v>
+      </c>
+      <c r="H48">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.923</v>
+      </c>
+      <c r="K48">
+        <v>1.43</v>
+      </c>
+      <c r="L48">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M48">
+        <v>0.83149968</v>
+      </c>
+      <c r="N48">
+        <v>-1.33849968</v>
+      </c>
+      <c r="O48">
+        <v>-0.3212399232</v>
+      </c>
+      <c r="P48">
+        <v>-1.0172597568</v>
+      </c>
+      <c r="Q48">
+        <v>0.4127402432</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1379497080396769</v>
+      </c>
+      <c r="T48">
+        <v>1.877578285983955</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.1463379997933373</v>
+      </c>
+      <c r="W48">
+        <v>0.210582290562036</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-0.6097416658055719</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1731046959999621</v>
+      </c>
+      <c r="C49">
+        <v>1.026632188519615</v>
+      </c>
+      <c r="D49">
+        <v>4.241432188519616</v>
+      </c>
+      <c r="E49">
+        <v>3.824800000000001</v>
+      </c>
+      <c r="F49">
+        <v>4.6248</v>
+      </c>
+      <c r="G49">
+        <v>1.41</v>
+      </c>
+      <c r="H49">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.923</v>
+      </c>
+      <c r="K49">
+        <v>1.43</v>
+      </c>
+      <c r="L49">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0.8495757600000001</v>
+      </c>
+      <c r="N49">
+        <v>-1.35657576</v>
+      </c>
+      <c r="O49">
+        <v>-0.3255781824</v>
+      </c>
+      <c r="P49">
+        <v>-1.0309975776</v>
+      </c>
+      <c r="Q49">
+        <v>0.3990024223999999</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1403770610215576</v>
+      </c>
+      <c r="T49">
+        <v>1.91300429137988</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.1432244253296492</v>
+      </c>
+      <c r="W49">
+        <v>0.2100103269330566</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-0.5967684388735384</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1748486959999621</v>
+      </c>
+      <c r="C50">
+        <v>0.8910369241629459</v>
+      </c>
+      <c r="D50">
+        <v>4.204236924162945</v>
+      </c>
+      <c r="E50">
+        <v>3.9232</v>
+      </c>
+      <c r="F50">
+        <v>4.723199999999999</v>
+      </c>
+      <c r="G50">
+        <v>1.41</v>
+      </c>
+      <c r="H50">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.923</v>
+      </c>
+      <c r="K50">
+        <v>1.43</v>
+      </c>
+      <c r="L50">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M50">
+        <v>0.86765184</v>
+      </c>
+      <c r="N50">
+        <v>-1.37465184</v>
+      </c>
+      <c r="O50">
+        <v>-0.3299164415999999</v>
+      </c>
+      <c r="P50">
+        <v>-1.0447353984</v>
+      </c>
+      <c r="Q50">
+        <v>0.3852646016000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1428977737335106</v>
+      </c>
+      <c r="T50">
+        <v>1.949792835444877</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.1402405831352815</v>
+      </c>
+      <c r="W50">
+        <v>0.2094621951219512</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-0.584335763063673</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1765926959999621</v>
+      </c>
+      <c r="C51">
+        <v>0.7560883567696344</v>
+      </c>
+      <c r="D51">
+        <v>4.167688356769634</v>
+      </c>
+      <c r="E51">
+        <v>4.0216</v>
+      </c>
+      <c r="F51">
+        <v>4.8216</v>
+      </c>
+      <c r="G51">
+        <v>1.41</v>
+      </c>
+      <c r="H51">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.923</v>
+      </c>
+      <c r="K51">
+        <v>1.43</v>
+      </c>
+      <c r="L51">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M51">
+        <v>0.88572792</v>
+      </c>
+      <c r="N51">
+        <v>-1.39272792</v>
+      </c>
+      <c r="O51">
+        <v>-0.3342547008</v>
+      </c>
+      <c r="P51">
+        <v>-1.0584732192</v>
+      </c>
+      <c r="Q51">
+        <v>0.3715267807999998</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1455173379243638</v>
+      </c>
+      <c r="T51">
+        <v>1.988024067512423</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.1373785304182349</v>
+      </c>
+      <c r="W51">
+        <v>0.2089364360378297</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-0.5724105434093125</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1783366959999621</v>
+      </c>
+      <c r="C52">
+        <v>0.6217697659602193</v>
+      </c>
+      <c r="D52">
+        <v>4.131769765960219</v>
+      </c>
+      <c r="E52">
+        <v>4.12</v>
+      </c>
+      <c r="F52">
+        <v>4.92</v>
+      </c>
+      <c r="G52">
+        <v>1.41</v>
+      </c>
+      <c r="H52">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.923</v>
+      </c>
+      <c r="K52">
+        <v>1.43</v>
+      </c>
+      <c r="L52">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M52">
+        <v>0.9038040000000001</v>
+      </c>
+      <c r="N52">
+        <v>-1.410804</v>
+      </c>
+      <c r="O52">
+        <v>-0.33859296</v>
+      </c>
+      <c r="P52">
+        <v>-1.07221104</v>
+      </c>
+      <c r="Q52">
+        <v>0.3577889599999999</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.148241684682851</v>
+      </c>
+      <c r="T52">
+        <v>2.027784548862672</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.1346309598098702</v>
+      </c>
+      <c r="W52">
+        <v>0.2084317073170732</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-0.5609623325411259</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1800806959999621</v>
+      </c>
+      <c r="C53">
+        <v>0.4880650028382263</v>
+      </c>
+      <c r="D53">
+        <v>4.096465002838226</v>
+      </c>
+      <c r="E53">
+        <v>4.2184</v>
+      </c>
+      <c r="F53">
+        <v>5.0184</v>
+      </c>
+      <c r="G53">
+        <v>1.41</v>
+      </c>
+      <c r="H53">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.923</v>
+      </c>
+      <c r="K53">
+        <v>1.43</v>
+      </c>
+      <c r="L53">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M53">
+        <v>0.92188008</v>
+      </c>
+      <c r="N53">
+        <v>-1.42888008</v>
+      </c>
+      <c r="O53">
+        <v>-0.3429312192</v>
+      </c>
+      <c r="P53">
+        <v>-1.0859488608</v>
+      </c>
+      <c r="Q53">
+        <v>0.3440511392000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1510772292682154</v>
+      </c>
+      <c r="T53">
+        <v>2.069167907002727</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.1319911370685003</v>
+      </c>
+      <c r="W53">
+        <v>0.2079467718794835</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-0.5499630711187511</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1818246959999621</v>
+      </c>
+      <c r="C54">
+        <v>0.3549584657812597</v>
+      </c>
+      <c r="D54">
+        <v>4.06175846578126</v>
+      </c>
+      <c r="E54">
+        <v>4.316800000000001</v>
+      </c>
+      <c r="F54">
+        <v>5.1168</v>
+      </c>
+      <c r="G54">
+        <v>1.41</v>
+      </c>
+      <c r="H54">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.923</v>
+      </c>
+      <c r="K54">
+        <v>1.43</v>
+      </c>
+      <c r="L54">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M54">
+        <v>0.93995616</v>
+      </c>
+      <c r="N54">
+        <v>-1.44695616</v>
+      </c>
+      <c r="O54">
+        <v>-0.3472694784</v>
+      </c>
+      <c r="P54">
+        <v>-1.0996866816</v>
+      </c>
+      <c r="Q54">
+        <v>0.3303133183999998</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1540309215446365</v>
+      </c>
+      <c r="T54">
+        <v>2.11227557173195</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.1294528459710291</v>
+      </c>
+      <c r="W54">
+        <v>0.207480487804878</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-0.5393868582126213</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1835686959999621</v>
+      </c>
+      <c r="C55">
+        <v>0.2224350774523733</v>
+      </c>
+      <c r="D55">
+        <v>4.027635077452373</v>
+      </c>
+      <c r="E55">
+        <v>4.4152</v>
+      </c>
+      <c r="F55">
+        <v>5.2152</v>
+      </c>
+      <c r="G55">
+        <v>1.41</v>
+      </c>
+      <c r="H55">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.923</v>
+      </c>
+      <c r="K55">
+        <v>1.43</v>
+      </c>
+      <c r="L55">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M55">
+        <v>0.9580322400000001</v>
+      </c>
+      <c r="N55">
+        <v>-1.46503224</v>
+      </c>
+      <c r="O55">
+        <v>-0.3516077376</v>
+      </c>
+      <c r="P55">
+        <v>-1.1134245024</v>
+      </c>
+      <c r="Q55">
+        <v>0.3165754975999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1571103028540969</v>
+      </c>
+      <c r="T55">
+        <v>2.157217605173055</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.1270103394432738</v>
+      </c>
+      <c r="W55">
+        <v>0.2070317993557294</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-0.5292097476803075</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1853126959999621</v>
+      </c>
+      <c r="C56">
+        <v>0.09048026296058431</v>
+      </c>
+      <c r="D56">
+        <v>3.994080262960585</v>
+      </c>
+      <c r="E56">
+        <v>4.5136</v>
+      </c>
+      <c r="F56">
+        <v>5.3136</v>
+      </c>
+      <c r="G56">
+        <v>1.41</v>
+      </c>
+      <c r="H56">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.923</v>
+      </c>
+      <c r="K56">
+        <v>1.43</v>
+      </c>
+      <c r="L56">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M56">
+        <v>0.97610832</v>
+      </c>
+      <c r="N56">
+        <v>-1.48310832</v>
+      </c>
+      <c r="O56">
+        <v>-0.3559459967999999</v>
+      </c>
+      <c r="P56">
+        <v>-1.1271623232</v>
+      </c>
+      <c r="Q56">
+        <v>0.3028376768000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1603235703074468</v>
+      </c>
+      <c r="T56">
+        <v>2.204113640068122</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.1246582961202502</v>
+      </c>
+      <c r="W56">
+        <v>0.20659972899729</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-0.5194095671677093</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1870566959999621</v>
+      </c>
+      <c r="C57">
+        <v>-0.04092007089595384</v>
+      </c>
+      <c r="D57">
+        <v>3.961079929104046</v>
+      </c>
+      <c r="E57">
+        <v>4.612</v>
+      </c>
+      <c r="F57">
+        <v>5.412</v>
+      </c>
+      <c r="G57">
+        <v>1.41</v>
+      </c>
+      <c r="H57">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.923</v>
+      </c>
+      <c r="K57">
+        <v>1.43</v>
+      </c>
+      <c r="L57">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M57">
+        <v>0.9941844</v>
+      </c>
+      <c r="N57">
+        <v>-1.5011844</v>
+      </c>
+      <c r="O57">
+        <v>-0.360284256</v>
+      </c>
+      <c r="P57">
+        <v>-1.140900144</v>
+      </c>
+      <c r="Q57">
+        <v>0.289099856</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1636796496476123</v>
+      </c>
+      <c r="T57">
+        <v>2.253093943180747</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.1223917816453366</v>
+      </c>
+      <c r="W57">
+        <v>0.2061833702882483</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-0.5099657568555691</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1888006959999621</v>
+      </c>
+      <c r="C58">
+        <v>-0.1717795553662143</v>
+      </c>
+      <c r="D58">
+        <v>3.928620444633786</v>
+      </c>
+      <c r="E58">
+        <v>4.710400000000001</v>
+      </c>
+      <c r="F58">
+        <v>5.510400000000001</v>
+      </c>
+      <c r="G58">
+        <v>1.41</v>
+      </c>
+      <c r="H58">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.923</v>
+      </c>
+      <c r="K58">
+        <v>1.43</v>
+      </c>
+      <c r="L58">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M58">
+        <v>1.01226048</v>
+      </c>
+      <c r="N58">
+        <v>-1.51926048</v>
+      </c>
+      <c r="O58">
+        <v>-0.3646225152</v>
+      </c>
+      <c r="P58">
+        <v>-1.1546379648</v>
+      </c>
+      <c r="Q58">
+        <v>0.2753620351999999</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1671882780486944</v>
+      </c>
+      <c r="T58">
+        <v>2.304300623707582</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.1202062141159556</v>
+      </c>
+      <c r="W58">
+        <v>0.2057818815331011</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-0.5008592254831481</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1905446959999621</v>
+      </c>
+      <c r="C59">
+        <v>-0.3021113785200518</v>
+      </c>
+      <c r="D59">
+        <v>3.896688621479949</v>
+      </c>
+      <c r="E59">
+        <v>4.808800000000001</v>
+      </c>
+      <c r="F59">
+        <v>5.6088</v>
+      </c>
+      <c r="G59">
+        <v>1.41</v>
+      </c>
+      <c r="H59">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.923</v>
+      </c>
+      <c r="K59">
+        <v>1.43</v>
+      </c>
+      <c r="L59">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M59">
+        <v>1.03033656</v>
+      </c>
+      <c r="N59">
+        <v>-1.53733656</v>
+      </c>
+      <c r="O59">
+        <v>-0.3689607744</v>
+      </c>
+      <c r="P59">
+        <v>-1.1683757856</v>
+      </c>
+      <c r="Q59">
+        <v>0.2616242144000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1708600984684315</v>
+      </c>
+      <c r="T59">
+        <v>2.357889010305433</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.1180973331665528</v>
+      </c>
+      <c r="W59">
+        <v>0.2053944801026958</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-0.4920722215273035</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1922886959999621</v>
+      </c>
+      <c r="C60">
+        <v>-0.4319283031137946</v>
+      </c>
+      <c r="D60">
+        <v>3.865271696886205</v>
+      </c>
+      <c r="E60">
+        <v>4.9072</v>
+      </c>
+      <c r="F60">
+        <v>5.707199999999999</v>
+      </c>
+      <c r="G60">
+        <v>1.41</v>
+      </c>
+      <c r="H60">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.923</v>
+      </c>
+      <c r="K60">
+        <v>1.43</v>
+      </c>
+      <c r="L60">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M60">
+        <v>1.04841264</v>
+      </c>
+      <c r="N60">
+        <v>-1.55541264</v>
+      </c>
+      <c r="O60">
+        <v>-0.3732990335999999</v>
+      </c>
+      <c r="P60">
+        <v>-1.1821136064</v>
+      </c>
+      <c r="Q60">
+        <v>0.2478863936</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1747067674795846</v>
+      </c>
+      <c r="T60">
+        <v>2.414029224836514</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.1160611722498882</v>
+      </c>
+      <c r="W60">
+        <v>0.2050204373423044</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-0.4835882177078672</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1940326959999621</v>
+      </c>
+      <c r="C61">
+        <v>-0.5612426835985014</v>
+      </c>
+      <c r="D61">
+        <v>3.834357316401498</v>
+      </c>
+      <c r="E61">
+        <v>5.005599999999999</v>
+      </c>
+      <c r="F61">
+        <v>5.805599999999999</v>
+      </c>
+      <c r="G61">
+        <v>1.41</v>
+      </c>
+      <c r="H61">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.923</v>
+      </c>
+      <c r="K61">
+        <v>1.43</v>
+      </c>
+      <c r="L61">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M61">
+        <v>1.06648872</v>
+      </c>
+      <c r="N61">
+        <v>-1.57348872</v>
+      </c>
+      <c r="O61">
+        <v>-0.3776372928</v>
+      </c>
+      <c r="P61">
+        <v>-1.1958514272</v>
+      </c>
+      <c r="Q61">
+        <v>0.2341485728000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1787410788815257</v>
+      </c>
+      <c r="T61">
+        <v>2.472907986417892</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.1140940337371782</v>
+      </c>
+      <c r="W61">
+        <v>0.2046590739975196</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-0.4753918072382424</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1957766959999621</v>
+      </c>
+      <c r="C62">
+        <v>-0.6900664823184917</v>
+      </c>
+      <c r="D62">
+        <v>3.803933517681509</v>
+      </c>
+      <c r="E62">
+        <v>5.104</v>
+      </c>
+      <c r="F62">
+        <v>5.904</v>
+      </c>
+      <c r="G62">
+        <v>1.41</v>
+      </c>
+      <c r="H62">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.923</v>
+      </c>
+      <c r="K62">
+        <v>1.43</v>
+      </c>
+      <c r="L62">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M62">
+        <v>1.0845648</v>
+      </c>
+      <c r="N62">
+        <v>-1.5915648</v>
+      </c>
+      <c r="O62">
+        <v>-0.381975552</v>
+      </c>
+      <c r="P62">
+        <v>-1.209589248</v>
+      </c>
+      <c r="Q62">
+        <v>0.220410752</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1829771058535638</v>
+      </c>
+      <c r="T62">
+        <v>2.53473068607834</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.1121924665082252</v>
+      </c>
+      <c r="W62">
+        <v>0.204309756097561</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-0.4674686104509382</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1975206959999621</v>
+      </c>
+      <c r="C63">
+        <v>-0.8184112849447898</v>
+      </c>
+      <c r="D63">
+        <v>3.77398871505521</v>
+      </c>
+      <c r="E63">
+        <v>5.2024</v>
+      </c>
+      <c r="F63">
+        <v>6.0024</v>
+      </c>
+      <c r="G63">
+        <v>1.41</v>
+      </c>
+      <c r="H63">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.923</v>
+      </c>
+      <c r="K63">
+        <v>1.43</v>
+      </c>
+      <c r="L63">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M63">
+        <v>1.10264088</v>
+      </c>
+      <c r="N63">
+        <v>-1.60964088</v>
+      </c>
+      <c r="O63">
+        <v>-0.3863138112</v>
+      </c>
+      <c r="P63">
+        <v>-1.2233270688</v>
+      </c>
+      <c r="Q63">
+        <v>0.2066729312</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1874303649780142</v>
+      </c>
+      <c r="T63">
+        <v>2.599723780593169</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.1103532457457953</v>
+      </c>
+      <c r="W63">
+        <v>0.2039718912435026</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-0.4598051906074803</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1992646959999621</v>
+      </c>
+      <c r="C64">
+        <v>-0.9462883151853152</v>
+      </c>
+      <c r="D64">
+        <v>3.744511684814685</v>
+      </c>
+      <c r="E64">
+        <v>5.3008</v>
+      </c>
+      <c r="F64">
+        <v>6.1008</v>
+      </c>
+      <c r="G64">
+        <v>1.41</v>
+      </c>
+      <c r="H64">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.923</v>
+      </c>
+      <c r="K64">
+        <v>1.43</v>
+      </c>
+      <c r="L64">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M64">
+        <v>1.12071696</v>
+      </c>
+      <c r="N64">
+        <v>-1.62771696</v>
+      </c>
+      <c r="O64">
+        <v>-0.3906520703999999</v>
+      </c>
+      <c r="P64">
+        <v>-1.2370648896</v>
+      </c>
+      <c r="Q64">
+        <v>0.1929351103999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1921180061616461</v>
+      </c>
+      <c r="T64">
+        <v>2.668137564292989</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.1085733546853792</v>
+      </c>
+      <c r="W64">
+        <v>0.2036449252557042</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-0.4523889778557468</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2010086959999621</v>
+      </c>
+      <c r="C65">
+        <v>-1.073708448811024</v>
+      </c>
+      <c r="D65">
+        <v>3.715491551188977</v>
+      </c>
+      <c r="E65">
+        <v>5.3992</v>
+      </c>
+      <c r="F65">
+        <v>6.1992</v>
+      </c>
+      <c r="G65">
+        <v>1.41</v>
+      </c>
+      <c r="H65">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.923</v>
+      </c>
+      <c r="K65">
+        <v>1.43</v>
+      </c>
+      <c r="L65">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M65">
+        <v>1.13879304</v>
+      </c>
+      <c r="N65">
+        <v>-1.64579304</v>
+      </c>
+      <c r="O65">
+        <v>-0.3949903296</v>
+      </c>
+      <c r="P65">
+        <v>-1.2508027104</v>
+      </c>
+      <c r="Q65">
+        <v>0.1791972895999998</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1970590333552041</v>
+      </c>
+      <c r="T65">
+        <v>2.740249390354962</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.1068499681030716</v>
+      </c>
+      <c r="W65">
+        <v>0.2033283391405343</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-0.4452082004294651</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2027526959999621</v>
+      </c>
+      <c r="C66">
+        <v>-1.200682227034855</v>
+      </c>
+      <c r="D66">
+        <v>3.686917772965145</v>
+      </c>
+      <c r="E66">
+        <v>5.4976</v>
+      </c>
+      <c r="F66">
+        <v>6.2976</v>
+      </c>
+      <c r="G66">
+        <v>1.41</v>
+      </c>
+      <c r="H66">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.923</v>
+      </c>
+      <c r="K66">
+        <v>1.43</v>
+      </c>
+      <c r="L66">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M66">
+        <v>1.15686912</v>
+      </c>
+      <c r="N66">
+        <v>-1.66386912</v>
+      </c>
+      <c r="O66">
+        <v>-0.3993285888</v>
+      </c>
+      <c r="P66">
+        <v>-1.2645405312</v>
+      </c>
+      <c r="Q66">
+        <v>0.1654594688</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2022745620595154</v>
+      </c>
+      <c r="T66">
+        <v>2.816367428975933</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.1051804373514611</v>
+      </c>
+      <c r="W66">
+        <v>0.2030216463414634</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-0.4382518222977547</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2044966959999621</v>
+      </c>
+      <c r="C67">
+        <v>-1.327219869278062</v>
+      </c>
+      <c r="D67">
+        <v>3.658780130721938</v>
+      </c>
+      <c r="E67">
+        <v>5.596</v>
+      </c>
+      <c r="F67">
+        <v>6.396</v>
+      </c>
+      <c r="G67">
+        <v>1.41</v>
+      </c>
+      <c r="H67">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.923</v>
+      </c>
+      <c r="K67">
+        <v>1.43</v>
+      </c>
+      <c r="L67">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M67">
+        <v>1.1749452</v>
+      </c>
+      <c r="N67">
+        <v>-1.6819452</v>
+      </c>
+      <c r="O67">
+        <v>-0.403666848</v>
+      </c>
+      <c r="P67">
+        <v>-1.278278352</v>
+      </c>
+      <c r="Q67">
+        <v>0.1517216479999999</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2077881209755015</v>
+      </c>
+      <c r="T67">
+        <v>2.896835069803817</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.1035622767768233</v>
+      </c>
+      <c r="W67">
+        <v>0.2027243902439024</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-0.431509486570097</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2062406959999621</v>
+      </c>
+      <c r="C68">
+        <v>-1.453331285356372</v>
+      </c>
+      <c r="D68">
+        <v>3.631068714643629</v>
+      </c>
+      <c r="E68">
+        <v>5.694400000000001</v>
+      </c>
+      <c r="F68">
+        <v>6.494400000000001</v>
+      </c>
+      <c r="G68">
+        <v>1.41</v>
+      </c>
+      <c r="H68">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.923</v>
+      </c>
+      <c r="K68">
+        <v>1.43</v>
+      </c>
+      <c r="L68">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M68">
+        <v>1.19302128</v>
+      </c>
+      <c r="N68">
+        <v>-1.70002128</v>
+      </c>
+      <c r="O68">
+        <v>-0.4080051072</v>
+      </c>
+      <c r="P68">
+        <v>-1.2920161728</v>
+      </c>
+      <c r="Q68">
+        <v>0.1379838271999998</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2136260068865457</v>
+      </c>
+      <c r="T68">
+        <v>2.982036101268636</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.1019931513711138</v>
+      </c>
+      <c r="W68">
+        <v>0.2024361419068736</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-0.4249714640463076</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2079846959999621</v>
+      </c>
+      <c r="C69">
+        <v>-1.57902608711653</v>
+      </c>
+      <c r="D69">
+        <v>3.603773912883471</v>
+      </c>
+      <c r="E69">
+        <v>5.792800000000001</v>
+      </c>
+      <c r="F69">
+        <v>6.5928</v>
+      </c>
+      <c r="G69">
+        <v>1.41</v>
+      </c>
+      <c r="H69">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.923</v>
+      </c>
+      <c r="K69">
+        <v>1.43</v>
+      </c>
+      <c r="L69">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M69">
+        <v>1.21109736</v>
+      </c>
+      <c r="N69">
+        <v>-1.71809736</v>
+      </c>
+      <c r="O69">
+        <v>-0.4123433664</v>
+      </c>
+      <c r="P69">
+        <v>-1.3057539936</v>
+      </c>
+      <c r="Q69">
+        <v>0.1242460063999999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2198177040649259</v>
+      </c>
+      <c r="T69">
+        <v>3.07240083161011</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.1004708655297539</v>
+      </c>
+      <c r="W69">
+        <v>0.2021564979978158</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-0.4186286063739746</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2097286959999621</v>
+      </c>
+      <c r="C70">
+        <v>-1.704313599551948</v>
+      </c>
+      <c r="D70">
+        <v>3.576886400448053</v>
+      </c>
+      <c r="E70">
+        <v>5.8912</v>
+      </c>
+      <c r="F70">
+        <v>6.6912</v>
+      </c>
+      <c r="G70">
+        <v>1.41</v>
+      </c>
+      <c r="H70">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.923</v>
+      </c>
+      <c r="K70">
+        <v>1.43</v>
+      </c>
+      <c r="L70">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M70">
+        <v>1.22917344</v>
+      </c>
+      <c r="N70">
+        <v>-1.73617344</v>
+      </c>
+      <c r="O70">
+        <v>-0.4166816256</v>
+      </c>
+      <c r="P70">
+        <v>-1.3194918144</v>
+      </c>
+      <c r="Q70">
+        <v>0.1105081855999999</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2263963823169548</v>
+      </c>
+      <c r="T70">
+        <v>3.168413357597925</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.09899335280137518</v>
+      </c>
+      <c r="W70">
+        <v>0.2018850789096126</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-0.4124723033390632</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2114726959999621</v>
+      </c>
+      <c r="C71">
+        <v>-1.829202871424409</v>
+      </c>
+      <c r="D71">
+        <v>3.550397128575591</v>
+      </c>
+      <c r="E71">
+        <v>5.9896</v>
+      </c>
+      <c r="F71">
+        <v>6.7896</v>
+      </c>
+      <c r="G71">
+        <v>1.41</v>
+      </c>
+      <c r="H71">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.923</v>
+      </c>
+      <c r="K71">
+        <v>1.43</v>
+      </c>
+      <c r="L71">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M71">
+        <v>1.24724952</v>
+      </c>
+      <c r="N71">
+        <v>-1.75424952</v>
+      </c>
+      <c r="O71">
+        <v>-0.4210198848</v>
+      </c>
+      <c r="P71">
+        <v>-1.3332296352</v>
+      </c>
+      <c r="Q71">
+        <v>0.09677036480000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2333994914239534</v>
+      </c>
+      <c r="T71">
+        <v>3.270620240101084</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.09755866652889149</v>
+      </c>
+      <c r="W71">
+        <v>0.2016215270413574</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-0.4064944438703813</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2132166959999621</v>
+      </c>
+      <c r="C72">
+        <v>-1.953702685417291</v>
+      </c>
+      <c r="D72">
+        <v>3.52429731458271</v>
+      </c>
+      <c r="E72">
+        <v>6.088000000000001</v>
+      </c>
+      <c r="F72">
+        <v>6.888000000000001</v>
+      </c>
+      <c r="G72">
+        <v>1.41</v>
+      </c>
+      <c r="H72">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.923</v>
+      </c>
+      <c r="K72">
+        <v>1.43</v>
+      </c>
+      <c r="L72">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M72">
+        <v>1.2653256</v>
+      </c>
+      <c r="N72">
+        <v>-1.7723256</v>
+      </c>
+      <c r="O72">
+        <v>-0.425358144</v>
+      </c>
+      <c r="P72">
+        <v>-1.346967456</v>
+      </c>
+      <c r="Q72">
+        <v>0.08303254399999993</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2408694744714184</v>
+      </c>
+      <c r="T72">
+        <v>3.37964091477112</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.09616497129276445</v>
+      </c>
+      <c r="W72">
+        <v>0.2013655052264808</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-0.4006873803865185</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2149606959999621</v>
+      </c>
+      <c r="C73">
+        <v>-2.077821567844227</v>
+      </c>
+      <c r="D73">
+        <v>3.498578432155773</v>
+      </c>
+      <c r="E73">
+        <v>6.1864</v>
+      </c>
+      <c r="F73">
+        <v>6.9864</v>
+      </c>
+      <c r="G73">
+        <v>1.41</v>
+      </c>
+      <c r="H73">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.923</v>
+      </c>
+      <c r="K73">
+        <v>1.43</v>
+      </c>
+      <c r="L73">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M73">
+        <v>1.28340168</v>
+      </c>
+      <c r="N73">
+        <v>-1.79040168</v>
+      </c>
+      <c r="O73">
+        <v>-0.4296964031999999</v>
+      </c>
+      <c r="P73">
+        <v>-1.3607052768</v>
+      </c>
+      <c r="Q73">
+        <v>0.06929472320000007</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2488546287635363</v>
+      </c>
+      <c r="T73">
+        <v>3.496180256659779</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.09481053507737343</v>
+      </c>
+      <c r="W73">
+        <v>0.2011166952937135</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-0.3950438961557226</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2167046959999621</v>
+      </c>
+      <c r="C74">
+        <v>-2.201567797935748</v>
+      </c>
+      <c r="D74">
+        <v>3.473232202064251</v>
+      </c>
+      <c r="E74">
+        <v>6.2848</v>
+      </c>
+      <c r="F74">
+        <v>7.0848</v>
+      </c>
+      <c r="G74">
+        <v>1.41</v>
+      </c>
+      <c r="H74">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.923</v>
+      </c>
+      <c r="K74">
+        <v>1.43</v>
+      </c>
+      <c r="L74">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M74">
+        <v>1.30147776</v>
+      </c>
+      <c r="N74">
+        <v>-1.80847776</v>
+      </c>
+      <c r="O74">
+        <v>-0.4340346624</v>
+      </c>
+      <c r="P74">
+        <v>-1.3744430976</v>
+      </c>
+      <c r="Q74">
+        <v>0.0555569024</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2574101512193769</v>
+      </c>
+      <c r="T74">
+        <v>3.621043837254771</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.09349372209018768</v>
+      </c>
+      <c r="W74">
+        <v>0.2008747967479675</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-0.389557175375782</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2184486959999621</v>
+      </c>
+      <c r="C75">
+        <v>-2.324949416725141</v>
+      </c>
+      <c r="D75">
+        <v>3.448250583274858</v>
+      </c>
+      <c r="E75">
+        <v>6.3832</v>
+      </c>
+      <c r="F75">
+        <v>7.183199999999999</v>
+      </c>
+      <c r="G75">
+        <v>1.41</v>
+      </c>
+      <c r="H75">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.923</v>
+      </c>
+      <c r="K75">
+        <v>1.43</v>
+      </c>
+      <c r="L75">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M75">
+        <v>1.31955384</v>
+      </c>
+      <c r="N75">
+        <v>-1.82655384</v>
+      </c>
+      <c r="O75">
+        <v>-0.4383729216</v>
+      </c>
+      <c r="P75">
+        <v>-1.3881809184</v>
+      </c>
+      <c r="Q75">
+        <v>0.04181908160000014</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2665994160793538</v>
+      </c>
+      <c r="T75">
+        <v>3.755156571967911</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.09221298617114401</v>
+      </c>
+      <c r="W75">
+        <v>0.2006395255596392</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-0.3842207757131</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2201926959999621</v>
+      </c>
+      <c r="C76">
+        <v>-2.447974235553584</v>
+      </c>
+      <c r="D76">
+        <v>3.423625764446416</v>
+      </c>
+      <c r="E76">
+        <v>6.4816</v>
+      </c>
+      <c r="F76">
+        <v>7.2816</v>
+      </c>
+      <c r="G76">
+        <v>1.41</v>
+      </c>
+      <c r="H76">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.923</v>
+      </c>
+      <c r="K76">
+        <v>1.43</v>
+      </c>
+      <c r="L76">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M76">
+        <v>1.33762992</v>
+      </c>
+      <c r="N76">
+        <v>-1.84462992</v>
+      </c>
+      <c r="O76">
+        <v>-0.4427111808</v>
+      </c>
+      <c r="P76">
+        <v>-1.4019187392</v>
+      </c>
+      <c r="Q76">
+        <v>0.02808126079999984</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2764955474670213</v>
+      </c>
+      <c r="T76">
+        <v>3.899585670889754</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.0909668647363988</v>
+      </c>
+      <c r="W76">
+        <v>0.2004106130520765</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-0.3790286030683283</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2219366959999621</v>
+      </c>
+      <c r="C77">
+        <v>-2.570649844213434</v>
+      </c>
+      <c r="D77">
+        <v>3.399350155786566</v>
+      </c>
+      <c r="E77">
+        <v>6.58</v>
+      </c>
+      <c r="F77">
+        <v>7.38</v>
+      </c>
+      <c r="G77">
+        <v>1.41</v>
+      </c>
+      <c r="H77">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.923</v>
+      </c>
+      <c r="K77">
+        <v>1.43</v>
+      </c>
+      <c r="L77">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M77">
+        <v>1.355706</v>
+      </c>
+      <c r="N77">
+        <v>-1.862706</v>
+      </c>
+      <c r="O77">
+        <v>-0.44704944</v>
+      </c>
+      <c r="P77">
+        <v>-1.41565656</v>
+      </c>
+      <c r="Q77">
+        <v>0.01434343999999999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.287183369365702</v>
+      </c>
+      <c r="T77">
+        <v>4.055569097725344</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.08975397320658016</v>
+      </c>
+      <c r="W77">
+        <v>0.2001878048780488</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-0.3739748883607508</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2236806959999621</v>
+      </c>
+      <c r="C78">
+        <v>-2.692983618747516</v>
+      </c>
+      <c r="D78">
+        <v>3.375416381252483</v>
+      </c>
+      <c r="E78">
+        <v>6.6784</v>
+      </c>
+      <c r="F78">
+        <v>7.4784</v>
+      </c>
+      <c r="G78">
+        <v>1.41</v>
+      </c>
+      <c r="H78">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.923</v>
+      </c>
+      <c r="K78">
+        <v>1.43</v>
+      </c>
+      <c r="L78">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M78">
+        <v>1.37378208</v>
+      </c>
+      <c r="N78">
+        <v>-1.88078208</v>
+      </c>
+      <c r="O78">
+        <v>-0.4513876991999999</v>
+      </c>
+      <c r="P78">
+        <v>-1.4293943808</v>
+      </c>
+      <c r="Q78">
+        <v>0.0006056191999999072</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2987618430892729</v>
+      </c>
+      <c r="T78">
+        <v>4.224551143463899</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.08857299987491463</v>
+      </c>
+      <c r="W78">
+        <v>0.1999708600770218</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-0.3690541661454776</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2254246959999621</v>
+      </c>
+      <c r="C79">
+        <v>-2.814982728921232</v>
+      </c>
+      <c r="D79">
+        <v>3.351817271078768</v>
+      </c>
+      <c r="E79">
+        <v>6.776800000000001</v>
+      </c>
+      <c r="F79">
+        <v>7.5768</v>
+      </c>
+      <c r="G79">
+        <v>1.41</v>
+      </c>
+      <c r="H79">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.923</v>
+      </c>
+      <c r="K79">
+        <v>1.43</v>
+      </c>
+      <c r="L79">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M79">
+        <v>1.39185816</v>
+      </c>
+      <c r="N79">
+        <v>-1.89885816</v>
+      </c>
+      <c r="O79">
+        <v>-0.4557259584</v>
+      </c>
+      <c r="P79">
+        <v>-1.4431322016</v>
+      </c>
+      <c r="Q79">
+        <v>-0.01313220160000017</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3113471406148935</v>
+      </c>
+      <c r="T79">
+        <v>4.408227280136243</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.0874227011752404</v>
+      </c>
+      <c r="W79">
+        <v>0.1997595502058917</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-0.3642612548968351</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2271686959999621</v>
+      </c>
+      <c r="C80">
+        <v>-2.936654145383401</v>
+      </c>
+      <c r="D80">
+        <v>3.328545854616599</v>
+      </c>
+      <c r="E80">
+        <v>6.8752</v>
+      </c>
+      <c r="F80">
+        <v>7.6752</v>
+      </c>
+      <c r="G80">
+        <v>1.41</v>
+      </c>
+      <c r="H80">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.923</v>
+      </c>
+      <c r="K80">
+        <v>1.43</v>
+      </c>
+      <c r="L80">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M80">
+        <v>1.40993424</v>
+      </c>
+      <c r="N80">
+        <v>-1.91693424</v>
+      </c>
+      <c r="O80">
+        <v>-0.4600642176</v>
+      </c>
+      <c r="P80">
+        <v>-1.4568700224</v>
+      </c>
+      <c r="Q80">
+        <v>-0.02687002240000003</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3250765560973887</v>
+      </c>
+      <c r="T80">
+        <v>4.608601247415163</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.08630189731401938</v>
+      </c>
+      <c r="W80">
+        <v>0.1995536585365854</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-0.3595912388084141</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2289126959999621</v>
+      </c>
+      <c r="C81">
+        <v>-3.058004646530868</v>
+      </c>
+      <c r="D81">
+        <v>3.305595353469132</v>
+      </c>
+      <c r="E81">
+        <v>6.9736</v>
+      </c>
+      <c r="F81">
+        <v>7.7736</v>
+      </c>
+      <c r="G81">
+        <v>1.41</v>
+      </c>
+      <c r="H81">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.923</v>
+      </c>
+      <c r="K81">
+        <v>1.43</v>
+      </c>
+      <c r="L81">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M81">
+        <v>1.42801032</v>
+      </c>
+      <c r="N81">
+        <v>-1.93501032</v>
+      </c>
+      <c r="O81">
+        <v>-0.4644024768</v>
+      </c>
+      <c r="P81">
+        <v>-1.4706078432</v>
+      </c>
+      <c r="Q81">
+        <v>-0.0406078432000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3401135349591692</v>
+      </c>
+      <c r="T81">
+        <v>4.828058449673029</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.0852094682340951</v>
+      </c>
+      <c r="W81">
+        <v>0.1993529793146033</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-0.3550394509753962</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2306566959999621</v>
+      </c>
+      <c r="C82">
+        <v>-3.179040825091045</v>
+      </c>
+      <c r="D82">
+        <v>3.282959174908955</v>
+      </c>
+      <c r="E82">
+        <v>7.072</v>
+      </c>
+      <c r="F82">
+        <v>7.872</v>
+      </c>
+      <c r="G82">
+        <v>1.41</v>
+      </c>
+      <c r="H82">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.923</v>
+      </c>
+      <c r="K82">
+        <v>1.43</v>
+      </c>
+      <c r="L82">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M82">
+        <v>1.4460864</v>
+      </c>
+      <c r="N82">
+        <v>-1.9530864</v>
+      </c>
+      <c r="O82">
+        <v>-0.4687407359999999</v>
+      </c>
+      <c r="P82">
+        <v>-1.484345664</v>
+      </c>
+      <c r="Q82">
+        <v>-0.05434566399999996</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3566542117071277</v>
+      </c>
+      <c r="T82">
+        <v>5.069461372156681</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.08414434988116891</v>
+      </c>
+      <c r="W82">
+        <v>0.1991573170731707</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-0.3506014578382037</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.232400695999962</v>
+      </c>
+      <c r="C83">
+        <v>-3.299769094435846</v>
+      </c>
+      <c r="D83">
+        <v>3.260630905564155</v>
+      </c>
+      <c r="E83">
+        <v>7.170400000000001</v>
+      </c>
+      <c r="F83">
+        <v>7.970400000000001</v>
+      </c>
+      <c r="G83">
+        <v>1.41</v>
+      </c>
+      <c r="H83">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.923</v>
+      </c>
+      <c r="K83">
+        <v>1.43</v>
+      </c>
+      <c r="L83">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M83">
+        <v>1.46416248</v>
+      </c>
+      <c r="N83">
+        <v>-1.97116248</v>
+      </c>
+      <c r="O83">
+        <v>-0.4730789952</v>
+      </c>
+      <c r="P83">
+        <v>-1.4980834848</v>
+      </c>
+      <c r="Q83">
+        <v>-0.06808348480000004</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3749360123232923</v>
+      </c>
+      <c r="T83">
+        <v>5.33627512858598</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.08310553074683347</v>
+      </c>
+      <c r="W83">
+        <v>0.1989664859981933</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-0.3462730447784728</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2341446959999621</v>
+      </c>
+      <c r="C84">
+        <v>-3.420195694639708</v>
+      </c>
+      <c r="D84">
+        <v>3.238604305360294</v>
+      </c>
+      <c r="E84">
+        <v>7.268800000000001</v>
+      </c>
+      <c r="F84">
+        <v>8.068800000000001</v>
+      </c>
+      <c r="G84">
+        <v>1.41</v>
+      </c>
+      <c r="H84">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.923</v>
+      </c>
+      <c r="K84">
+        <v>1.43</v>
+      </c>
+      <c r="L84">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M84">
+        <v>1.48223856</v>
+      </c>
+      <c r="N84">
+        <v>-1.98923856</v>
+      </c>
+      <c r="O84">
+        <v>-0.4774172544</v>
+      </c>
+      <c r="P84">
+        <v>-1.5118213056</v>
+      </c>
+      <c r="Q84">
+        <v>-0.08182130560000034</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3952491241190308</v>
+      </c>
+      <c r="T84">
+        <v>5.632734857951868</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.08209204866455501</v>
+      </c>
+      <c r="W84">
+        <v>0.1987803093396788</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-0.3420502027689791</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2358886959999621</v>
+      </c>
+      <c r="C85">
+        <v>-3.540326698293708</v>
+      </c>
+      <c r="D85">
+        <v>3.216873301706292</v>
+      </c>
+      <c r="E85">
+        <v>7.367200000000001</v>
+      </c>
+      <c r="F85">
+        <v>8.167200000000001</v>
+      </c>
+      <c r="G85">
+        <v>1.41</v>
+      </c>
+      <c r="H85">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.923</v>
+      </c>
+      <c r="K85">
+        <v>1.43</v>
+      </c>
+      <c r="L85">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M85">
+        <v>1.50031464</v>
+      </c>
+      <c r="N85">
+        <v>-2.00731464</v>
+      </c>
+      <c r="O85">
+        <v>-0.4817555136</v>
+      </c>
+      <c r="P85">
+        <v>-1.5255591264</v>
+      </c>
+      <c r="Q85">
+        <v>-0.09555912640000019</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4179520137730915</v>
+      </c>
+      <c r="T85">
+        <v>5.964072202537273</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.08110298783727123</v>
+      </c>
+      <c r="W85">
+        <v>0.1985986188657067</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-0.3379291159886302</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2376326959999621</v>
+      </c>
+      <c r="C86">
+        <v>-3.660168016087173</v>
+      </c>
+      <c r="D86">
+        <v>3.195431983912826</v>
+      </c>
+      <c r="E86">
+        <v>7.465599999999999</v>
+      </c>
+      <c r="F86">
+        <v>8.265599999999999</v>
+      </c>
+      <c r="G86">
+        <v>1.41</v>
+      </c>
+      <c r="H86">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.923</v>
+      </c>
+      <c r="K86">
+        <v>1.43</v>
+      </c>
+      <c r="L86">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M86">
+        <v>1.51839072</v>
+      </c>
+      <c r="N86">
+        <v>-2.02539072</v>
+      </c>
+      <c r="O86">
+        <v>-0.4860937727999999</v>
+      </c>
+      <c r="P86">
+        <v>-1.5392969472</v>
+      </c>
+      <c r="Q86">
+        <v>-0.1092969472</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4434927646339094</v>
+      </c>
+      <c r="T86">
+        <v>6.336826715195849</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.08013747607730372</v>
+      </c>
+      <c r="W86">
+        <v>0.1984212543554007</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-0.3339061503220988</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2393766959999621</v>
+      </c>
+      <c r="C87">
+        <v>-3.779725402167547</v>
+      </c>
+      <c r="D87">
+        <v>3.174274597832452</v>
+      </c>
+      <c r="E87">
+        <v>7.563999999999999</v>
+      </c>
+      <c r="F87">
+        <v>8.363999999999999</v>
+      </c>
+      <c r="G87">
+        <v>1.41</v>
+      </c>
+      <c r="H87">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.923</v>
+      </c>
+      <c r="K87">
+        <v>1.43</v>
+      </c>
+      <c r="L87">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M87">
+        <v>1.5364668</v>
+      </c>
+      <c r="N87">
+        <v>-2.0434668</v>
+      </c>
+      <c r="O87">
+        <v>-0.490432032</v>
+      </c>
+      <c r="P87">
+        <v>-1.553034768</v>
+      </c>
+      <c r="Q87">
+        <v>-0.1230347680000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4724389489428367</v>
+      </c>
+      <c r="T87">
+        <v>6.759281829542238</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.07919468224110014</v>
+      </c>
+      <c r="W87">
+        <v>0.1982480631276901</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-0.3299778426712507</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2411206959999621</v>
+      </c>
+      <c r="C88">
+        <v>-3.899004459288728</v>
+      </c>
+      <c r="D88">
+        <v>3.153395540711273</v>
+      </c>
+      <c r="E88">
+        <v>7.662400000000001</v>
+      </c>
+      <c r="F88">
+        <v>8.462400000000001</v>
+      </c>
+      <c r="G88">
+        <v>1.41</v>
+      </c>
+      <c r="H88">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.923</v>
+      </c>
+      <c r="K88">
+        <v>1.43</v>
+      </c>
+      <c r="L88">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M88">
+        <v>1.55454288</v>
+      </c>
+      <c r="N88">
+        <v>-2.06154288</v>
+      </c>
+      <c r="O88">
+        <v>-0.4947702912</v>
+      </c>
+      <c r="P88">
+        <v>-1.5667725888</v>
+      </c>
+      <c r="Q88">
+        <v>-0.1367725888000002</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.5055203024387537</v>
+      </c>
+      <c r="T88">
+        <v>7.242087674509541</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.07827381384294781</v>
+      </c>
+      <c r="W88">
+        <v>0.1980788996029495</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-0.3261408910122827</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2428646959999621</v>
+      </c>
+      <c r="C89">
+        <v>-4.018010643757544</v>
+      </c>
+      <c r="D89">
+        <v>3.132789356242456</v>
+      </c>
+      <c r="E89">
+        <v>7.760800000000001</v>
+      </c>
+      <c r="F89">
+        <v>8.5608</v>
+      </c>
+      <c r="G89">
+        <v>1.41</v>
+      </c>
+      <c r="H89">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.923</v>
+      </c>
+      <c r="K89">
+        <v>1.43</v>
+      </c>
+      <c r="L89">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M89">
+        <v>1.57261896</v>
+      </c>
+      <c r="N89">
+        <v>-2.07961896</v>
+      </c>
+      <c r="O89">
+        <v>-0.4991085504</v>
+      </c>
+      <c r="P89">
+        <v>-1.5805104096</v>
+      </c>
+      <c r="Q89">
+        <v>-0.1505104096000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.5436910949340426</v>
+      </c>
+      <c r="T89">
+        <v>7.799171341779508</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.07737411483325876</v>
+      </c>
+      <c r="W89">
+        <v>0.1979136248948696</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-0.3223921451385783</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2446086959999621</v>
+      </c>
+      <c r="C90">
+        <v>-4.136749270187563</v>
+      </c>
+      <c r="D90">
+        <v>3.112450729812437</v>
+      </c>
+      <c r="E90">
+        <v>7.8592</v>
+      </c>
+      <c r="F90">
+        <v>8.6592</v>
+      </c>
+      <c r="G90">
+        <v>1.41</v>
+      </c>
+      <c r="H90">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.923</v>
+      </c>
+      <c r="K90">
+        <v>1.43</v>
+      </c>
+      <c r="L90">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M90">
+        <v>1.59069504</v>
+      </c>
+      <c r="N90">
+        <v>-2.09769504</v>
+      </c>
+      <c r="O90">
+        <v>-0.5034468096</v>
+      </c>
+      <c r="P90">
+        <v>-1.5942482304</v>
+      </c>
+      <c r="Q90">
+        <v>-0.1642482304000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5882236861785459</v>
+      </c>
+      <c r="T90">
+        <v>8.449102286927799</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.07649486352833536</v>
+      </c>
+      <c r="W90">
+        <v>0.1977521064301552</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-0.3187285980347307</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2463526959999621</v>
+      </c>
+      <c r="C91">
+        <v>-4.255225516068911</v>
+      </c>
+      <c r="D91">
+        <v>3.092374483931088</v>
+      </c>
+      <c r="E91">
+        <v>7.9576</v>
+      </c>
+      <c r="F91">
+        <v>8.7576</v>
+      </c>
+      <c r="G91">
+        <v>1.41</v>
+      </c>
+      <c r="H91">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.923</v>
+      </c>
+      <c r="K91">
+        <v>1.43</v>
+      </c>
+      <c r="L91">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M91">
+        <v>1.60877112</v>
+      </c>
+      <c r="N91">
+        <v>-2.11577112</v>
+      </c>
+      <c r="O91">
+        <v>-0.5077850688</v>
+      </c>
+      <c r="P91">
+        <v>-1.6079860512</v>
+      </c>
+      <c r="Q91">
+        <v>-0.1779860511999998</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.6408531121947776</v>
+      </c>
+      <c r="T91">
+        <v>9.217202494830328</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.07563537067970239</v>
+      </c>
+      <c r="W91">
+        <v>0.1975942175938613</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-0.3151473778320932</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2480966959999621</v>
+      </c>
+      <c r="C92">
+        <v>-4.37344442616237</v>
+      </c>
+      <c r="D92">
+        <v>3.07255557383763</v>
+      </c>
+      <c r="E92">
+        <v>8.055999999999999</v>
+      </c>
+      <c r="F92">
+        <v>8.856</v>
+      </c>
+      <c r="G92">
+        <v>1.41</v>
+      </c>
+      <c r="H92">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.923</v>
+      </c>
+      <c r="K92">
+        <v>1.43</v>
+      </c>
+      <c r="L92">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M92">
+        <v>1.6268472</v>
+      </c>
+      <c r="N92">
+        <v>-2.1338472</v>
+      </c>
+      <c r="O92">
+        <v>-0.5121233279999999</v>
+      </c>
+      <c r="P92">
+        <v>-1.621723872</v>
+      </c>
+      <c r="Q92">
+        <v>-0.1917238720000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.7040084234142554</v>
+      </c>
+      <c r="T92">
+        <v>10.13892274431336</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.07479497767215014</v>
+      </c>
+      <c r="W92">
+        <v>0.197439837398374</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.3116457403006256</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2498406959999621</v>
+      </c>
+      <c r="C93">
+        <v>-4.491410916725576</v>
+      </c>
+      <c r="D93">
+        <v>3.052989083274424</v>
+      </c>
+      <c r="E93">
+        <v>8.154399999999999</v>
+      </c>
+      <c r="F93">
+        <v>8.9544</v>
+      </c>
+      <c r="G93">
+        <v>1.41</v>
+      </c>
+      <c r="H93">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.923</v>
+      </c>
+      <c r="K93">
+        <v>1.43</v>
+      </c>
+      <c r="L93">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M93">
+        <v>1.64492328</v>
+      </c>
+      <c r="N93">
+        <v>-2.15192328</v>
+      </c>
+      <c r="O93">
+        <v>-0.5164615872</v>
+      </c>
+      <c r="P93">
+        <v>-1.6354616928</v>
+      </c>
+      <c r="Q93">
+        <v>-0.2054616928000002</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.7811982482380617</v>
+      </c>
+      <c r="T93">
+        <v>11.26546971590374</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.07397305484058805</v>
+      </c>
+      <c r="W93">
+        <v>0.197288850174216</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.3082210618357837</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2515846959999621</v>
+      </c>
+      <c r="C94">
+        <v>-4.609129779578755</v>
+      </c>
+      <c r="D94">
+        <v>3.033670220421245</v>
+      </c>
+      <c r="E94">
+        <v>8.252799999999999</v>
+      </c>
+      <c r="F94">
+        <v>9.0528</v>
+      </c>
+      <c r="G94">
+        <v>1.41</v>
+      </c>
+      <c r="H94">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.923</v>
+      </c>
+      <c r="K94">
+        <v>1.43</v>
+      </c>
+      <c r="L94">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M94">
+        <v>1.66299936</v>
+      </c>
+      <c r="N94">
+        <v>-2.16999936</v>
+      </c>
+      <c r="O94">
+        <v>-0.5207998464</v>
+      </c>
+      <c r="P94">
+        <v>-1.6491995136</v>
+      </c>
+      <c r="Q94">
+        <v>-0.2191995135999998</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.8776855292678196</v>
+      </c>
+      <c r="T94">
+        <v>12.67365343039171</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.07316899989666863</v>
+      </c>
+      <c r="W94">
+        <v>0.197141145281018</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.3048708329027858</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2533286959999621</v>
+      </c>
+      <c r="C95">
+        <v>-4.726605686017094</v>
+      </c>
+      <c r="D95">
+        <v>3.014594313982907</v>
+      </c>
+      <c r="E95">
+        <v>8.3512</v>
+      </c>
+      <c r="F95">
+        <v>9.151200000000001</v>
+      </c>
+      <c r="G95">
+        <v>1.41</v>
+      </c>
+      <c r="H95">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.923</v>
+      </c>
+      <c r="K95">
+        <v>1.43</v>
+      </c>
+      <c r="L95">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M95">
+        <v>1.68107544</v>
+      </c>
+      <c r="N95">
+        <v>-2.18807544</v>
+      </c>
+      <c r="O95">
+        <v>-0.5251381056000001</v>
+      </c>
+      <c r="P95">
+        <v>-1.6629373344</v>
+      </c>
+      <c r="Q95">
+        <v>-0.2329373344000005</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.001740604877508</v>
+      </c>
+      <c r="T95">
+        <v>14.48417534901909</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.07238223645691948</v>
+      </c>
+      <c r="W95">
+        <v>0.1969966168371361</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.3015926519038312</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2550726959999621</v>
+      </c>
+      <c r="C96">
+        <v>-4.84384319057639</v>
+      </c>
+      <c r="D96">
+        <v>2.995756809423611</v>
+      </c>
+      <c r="E96">
+        <v>8.4496</v>
+      </c>
+      <c r="F96">
+        <v>9.249600000000001</v>
+      </c>
+      <c r="G96">
+        <v>1.41</v>
+      </c>
+      <c r="H96">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.923</v>
+      </c>
+      <c r="K96">
+        <v>1.43</v>
+      </c>
+      <c r="L96">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M96">
+        <v>1.69915152</v>
+      </c>
+      <c r="N96">
+        <v>-2.20615152</v>
+      </c>
+      <c r="O96">
+        <v>-0.5294763648</v>
+      </c>
+      <c r="P96">
+        <v>-1.6766751552</v>
+      </c>
+      <c r="Q96">
+        <v>-0.2466751552000002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.167147372357093</v>
+      </c>
+      <c r="T96">
+        <v>16.89820457385562</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.07161221266482459</v>
+      </c>
+      <c r="W96">
+        <v>0.1968551634665283</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.2983842194367692</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2568166959999622</v>
+      </c>
+      <c r="C97">
+        <v>-4.96084673465841</v>
+      </c>
+      <c r="D97">
+        <v>2.977153265341591</v>
+      </c>
+      <c r="E97">
+        <v>8.548</v>
+      </c>
+      <c r="F97">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="G97">
+        <v>1.41</v>
+      </c>
+      <c r="H97">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.923</v>
+      </c>
+      <c r="K97">
+        <v>1.43</v>
+      </c>
+      <c r="L97">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M97">
+        <v>1.7172276</v>
+      </c>
+      <c r="N97">
+        <v>-2.2242276</v>
+      </c>
+      <c r="O97">
+        <v>-0.5338146239999999</v>
+      </c>
+      <c r="P97">
+        <v>-1.690412976</v>
+      </c>
+      <c r="Q97">
+        <v>-0.260412976</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.398716846828512</v>
+      </c>
+      <c r="T97">
+        <v>20.27784548862675</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.0708583998999317</v>
+      </c>
+      <c r="W97">
+        <v>0.1967166880616175</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.2952433329163819</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2585606959999621</v>
+      </c>
+      <c r="C98">
+        <v>-5.077620650022013</v>
+      </c>
+      <c r="D98">
+        <v>2.958779349977986</v>
+      </c>
+      <c r="E98">
+        <v>8.646399999999998</v>
+      </c>
+      <c r="F98">
+        <v>9.446399999999999</v>
+      </c>
+      <c r="G98">
+        <v>1.41</v>
+      </c>
+      <c r="H98">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.923</v>
+      </c>
+      <c r="K98">
+        <v>1.43</v>
+      </c>
+      <c r="L98">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M98">
+        <v>1.73530368</v>
+      </c>
+      <c r="N98">
+        <v>-2.24230368</v>
+      </c>
+      <c r="O98">
+        <v>-0.5381528832</v>
+      </c>
+      <c r="P98">
+        <v>-1.7041507968</v>
+      </c>
+      <c r="Q98">
+        <v>-0.2741507968000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.746071058535637</v>
+      </c>
+      <c r="T98">
+        <v>25.34730686078338</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.07012029156764076</v>
+      </c>
+      <c r="W98">
+        <v>0.1965810975609756</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.2921678815318367</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2603046959999621</v>
+      </c>
+      <c r="C99">
+        <v>-5.194169162145771</v>
+      </c>
+      <c r="D99">
+        <v>2.94063083785423</v>
+      </c>
+      <c r="E99">
+        <v>8.7448</v>
+      </c>
+      <c r="F99">
+        <v>9.5448</v>
+      </c>
+      <c r="G99">
+        <v>1.41</v>
+      </c>
+      <c r="H99">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.923</v>
+      </c>
+      <c r="K99">
+        <v>1.43</v>
+      </c>
+      <c r="L99">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M99">
+        <v>1.75337976</v>
+      </c>
+      <c r="N99">
+        <v>-2.26037976</v>
+      </c>
+      <c r="O99">
+        <v>-0.5424911424000001</v>
+      </c>
+      <c r="P99">
+        <v>-1.7178886176</v>
+      </c>
+      <c r="Q99">
+        <v>-0.2878886176000002</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.324994744714183</v>
+      </c>
+      <c r="T99">
+        <v>33.79640914771117</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.06939740196385064</v>
+      </c>
+      <c r="W99">
+        <v>0.1964483027407594</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.2891558415160445</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2620486959999621</v>
+      </c>
+      <c r="C100">
+        <v>-5.310496393467599</v>
+      </c>
+      <c r="D100">
+        <v>2.922703606532401</v>
+      </c>
+      <c r="E100">
+        <v>8.8432</v>
+      </c>
+      <c r="F100">
+        <v>9.6432</v>
+      </c>
+      <c r="G100">
+        <v>1.41</v>
+      </c>
+      <c r="H100">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.923</v>
+      </c>
+      <c r="K100">
+        <v>1.43</v>
+      </c>
+      <c r="L100">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M100">
+        <v>1.77145584</v>
+      </c>
+      <c r="N100">
+        <v>-2.27845584</v>
+      </c>
+      <c r="O100">
+        <v>-0.5468294015999999</v>
+      </c>
+      <c r="P100">
+        <v>-1.7316264384</v>
+      </c>
+      <c r="Q100">
+        <v>-0.3016264384</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.482842117071274</v>
+      </c>
+      <c r="T100">
+        <v>50.69461372156676</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.06868926520911747</v>
+      </c>
+      <c r="W100">
+        <v>0.1963182180189149</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.2862052717046562</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2637926959999621</v>
+      </c>
+      <c r="C101">
+        <v>-5.426606366506608</v>
+      </c>
+      <c r="D101">
+        <v>2.904993633493392</v>
+      </c>
+      <c r="E101">
+        <v>8.941599999999999</v>
+      </c>
+      <c r="F101">
+        <v>9.7416</v>
+      </c>
+      <c r="G101">
+        <v>1.41</v>
+      </c>
+      <c r="H101">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.923</v>
+      </c>
+      <c r="K101">
+        <v>1.43</v>
+      </c>
+      <c r="L101">
+        <v>-0.5069999999999999</v>
+      </c>
+      <c r="M101">
+        <v>1.78953192</v>
+      </c>
+      <c r="N101">
+        <v>-2.29653192</v>
+      </c>
+      <c r="O101">
+        <v>-0.5511676607999999</v>
+      </c>
+      <c r="P101">
+        <v>-1.7453642592</v>
+      </c>
+      <c r="Q101">
+        <v>-0.3153642591999997</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.956384234142546</v>
+      </c>
+      <c r="T101">
+        <v>101.3892274431335</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.06799543424740923</v>
+      </c>
+      <c r="W101">
+        <v>0.1961907612712491</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.283314309364205</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
